--- a/BPRH Example.xlsx
+++ b/BPRH Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - The University of Texas at Dallas\UTD MIS PhD YXL180111\2020 Summer\Research\BPR\BPRH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85957" documentId="11_C6DE35B66380080D137F7BCE8AF8D9537155F92F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{B03B36CF-EE78-4A40-8802-942692F87CEF}"/>
+  <xr:revisionPtr revIDLastSave="86214" documentId="11_C6DE35B66380080D137F7BCE8AF8D9537155F92F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{473831BD-79C4-4759-8F86-F7939AEBDCBB}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,152 +19,232 @@
     <sheet name="BPRH w. Reg" sheetId="4" r:id="rId4"/>
     <sheet name="BPRH w. D" sheetId="5" r:id="rId5"/>
     <sheet name="Iteration1" sheetId="6" r:id="rId6"/>
+    <sheet name="obj_t" sheetId="10" r:id="rId7"/>
+    <sheet name="obj_t+1" sheetId="11" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">BPR!$C$9:$D$12,BPR!$C$15:$F$16</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">BPRH!$C$10:$D$13,BPRH!$C$16:$F$17,BPRH!$I$16:$L$16</definedName>
-    <definedName name="solver_adj" localSheetId="4" hidden="1">'BPRH w. D'!$C$10:$D$13,'BPRH w. D'!$C$16:$F$18</definedName>
+    <definedName name="solver_adj" localSheetId="4" hidden="1">'BPRH w. D'!#REF!,'BPRH w. D'!#REF!</definedName>
     <definedName name="solver_adj" localSheetId="3" hidden="1">'BPRH w. Reg'!$C$10:$D$13,'BPRH w. Reg'!$C$16:$F$17,'BPRH w. Reg'!$I$16:$L$16</definedName>
+    <definedName name="solver_adj" localSheetId="6" hidden="1">obj_t!$C$10:$D$13,obj_t!$C$16:$F$17,obj_t!$I$16:$L$16</definedName>
+    <definedName name="solver_adj" localSheetId="7" hidden="1">'obj_t+1'!$C$10:$D$13,'obj_t+1'!$C$16:$F$17,'obj_t+1'!$I$16:$L$16</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_drv" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="2" hidden="1">BPRH!$C$16:$F$17</definedName>
-    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'BPRH w. D'!$C$16:$F$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="4" hidden="1">'BPRH w. D'!#REF!</definedName>
     <definedName name="solver_lhs1" localSheetId="3" hidden="1">'BPRH w. Reg'!$C$16:$F$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="6" hidden="1">obj_t!$C$16:$F$17</definedName>
+    <definedName name="solver_lhs1" localSheetId="7" hidden="1">'obj_t+1'!$C$16:$F$17</definedName>
     <definedName name="solver_lhs2" localSheetId="2" hidden="1">BPRH!$C$16:$F$17</definedName>
-    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'BPRH w. D'!$C$16:$F$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="4" hidden="1">'BPRH w. D'!#REF!</definedName>
     <definedName name="solver_lhs2" localSheetId="3" hidden="1">'BPRH w. Reg'!$C$16:$F$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="6" hidden="1">obj_t!$C$16:$F$17</definedName>
+    <definedName name="solver_lhs2" localSheetId="7" hidden="1">'obj_t+1'!$C$16:$F$17</definedName>
     <definedName name="solver_lhs3" localSheetId="2" hidden="1">BPRH!$C$16:$F$17</definedName>
-    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'BPRH w. D'!$C$16:$F$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="4" hidden="1">'BPRH w. D'!#REF!</definedName>
     <definedName name="solver_lhs3" localSheetId="3" hidden="1">'BPRH w. Reg'!$C$16:$F$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="6" hidden="1">obj_t!$C$16:$F$17</definedName>
+    <definedName name="solver_lhs3" localSheetId="7" hidden="1">'obj_t+1'!$C$16:$F$17</definedName>
     <definedName name="solver_lhs4" localSheetId="2" hidden="1">BPRH!$C$16:$F$17</definedName>
-    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'BPRH w. D'!$C$16:$F$17</definedName>
+    <definedName name="solver_lhs4" localSheetId="4" hidden="1">'BPRH w. D'!#REF!</definedName>
     <definedName name="solver_lhs4" localSheetId="3" hidden="1">'BPRH w. Reg'!$C$16:$F$17</definedName>
+    <definedName name="solver_lhs4" localSheetId="6" hidden="1">obj_t!$C$16:$F$17</definedName>
+    <definedName name="solver_lhs4" localSheetId="7" hidden="1">'obj_t+1'!$C$16:$F$17</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="1" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="1" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_neg" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_nod" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="1" hidden="1">BPR!$H$9</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">BPRH!$H$10</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">'BPRH w. D'!$M$10</definedName>
     <definedName name="solver_opt" localSheetId="3" hidden="1">'BPRH w. Reg'!$L$10</definedName>
+    <definedName name="solver_opt" localSheetId="6" hidden="1">obj_t!$L$10</definedName>
+    <definedName name="solver_opt" localSheetId="7" hidden="1">'obj_t+1'!$L$10</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel1" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel2" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel3" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel3" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_rel4" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_rel4" localSheetId="7" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs1" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs2" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs2" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs3" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs3" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rhs4" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rhs4" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="1" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="1" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_typ" localSheetId="3" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_typ" localSheetId="7" hidden="1">1</definedName>
     <definedName name="solver_val" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="2" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="3" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -182,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="952" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="160">
   <si>
     <t>User 1</t>
   </si>
@@ -771,6 +851,23 @@
   </si>
   <si>
     <t>NABLA b_4</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sampled I</t>
+  </si>
+  <si>
+    <t>Sampled J</t>
+  </si>
+  <si>
+    <t>Sampled K</t>
+  </si>
+  <si>
+    <t>lambda_u</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Diff of OBJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -856,7 +953,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -885,6 +982,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1733,7 +1836,7 @@
   <dimension ref="A1:L31"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2457,7 +2560,7 @@
   <dimension ref="A1:Q48"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -3696,8 +3799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B4F500A-61EB-43F4-8BC6-19C686F8CC12}">
   <dimension ref="A1:Q57"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5218,8 +5321,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDED4E38-4C23-4531-998E-706AABF0CA14}">
   <dimension ref="A1:Q59"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -5288,20 +5391,17 @@
         <v>0</v>
       </c>
       <c r="I4" s="10">
-        <f t="array" aca="1" ref="I4:L7" ca="1">MMULT(C10:E13,C16:F18)</f>
-        <v>0.68188901866464524</v>
+        <f t="array" ref="I4:L7">MMULT(C10:E13,C16:F18)</f>
+        <v>1.1914625138124442</v>
       </c>
       <c r="J4" s="10">
-        <f ca="1"/>
-        <v>0.46950371828665394</v>
+        <v>1.5211645451870728</v>
       </c>
       <c r="K4" s="10">
-        <f ca="1"/>
-        <v>0.57504488472849247</v>
+        <v>1.5401717056182314</v>
       </c>
       <c r="L4" s="10">
-        <f ca="1"/>
-        <v>0.98657372983432767</v>
+        <v>1.1167297763699846</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -5318,20 +5418,16 @@
         <v>1</v>
       </c>
       <c r="I5" s="10">
-        <f ca="1"/>
-        <v>1.0498280216795606</v>
+        <v>1.5264672223421094</v>
       </c>
       <c r="J5" s="10">
-        <f ca="1"/>
-        <v>1.1685823452596078</v>
+        <v>1.7389102477255272</v>
       </c>
       <c r="K5" s="10">
-        <f ca="1"/>
-        <v>1.2851013608344153</v>
+        <v>1.8365783326400957</v>
       </c>
       <c r="L5" s="10">
-        <f ca="1"/>
-        <v>1.3699438656191314</v>
+        <v>1.2768907469573452</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -5351,20 +5447,16 @@
         <v>2</v>
       </c>
       <c r="I6" s="10">
-        <f ca="1"/>
-        <v>0.90091940285189342</v>
+        <v>0.91975255588085292</v>
       </c>
       <c r="J6" s="10">
-        <f ca="1"/>
-        <v>0.94887499929680474</v>
+        <v>1.2100494140707658</v>
       </c>
       <c r="K6" s="10">
-        <f ca="1"/>
-        <v>1.0749571999056444</v>
+        <v>1.2581789645393708</v>
       </c>
       <c r="L6" s="10">
-        <f ca="1"/>
-        <v>1.2534177366265338</v>
+        <v>0.99942380802578623</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -5384,20 +5476,16 @@
         <v>24</v>
       </c>
       <c r="I7" s="10">
-        <f ca="1"/>
-        <v>0.98425017116745495</v>
+        <v>1.0292556516755567</v>
       </c>
       <c r="J7" s="10">
-        <f ca="1"/>
-        <v>0.85325740590962007</v>
+        <v>1.2980545520525868</v>
       </c>
       <c r="K7" s="10">
-        <f ca="1"/>
-        <v>0.92556300384522672</v>
+        <v>1.360269228804712</v>
       </c>
       <c r="L7" s="10">
-        <f ca="1"/>
-        <v>1.1850744197231933</v>
+        <v>1.0501997642192742</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -5425,27 +5513,19 @@
       <c r="J9" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="K9" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>97</v>
-      </c>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="10">
-        <f t="array" ref="C10:D13" ca="1">RAND()</f>
-        <v>3.2219552561987275E-2</v>
+        <v>0.69254206952197217</v>
       </c>
       <c r="D10" s="10">
-        <f ca="1"/>
-        <v>0.43726110172318777</v>
+        <v>0.12075742443010229</v>
       </c>
       <c r="E10" s="10">
         <v>1</v>
@@ -5457,22 +5537,10 @@
         <v>0.1</v>
       </c>
       <c r="I10" s="10">
-        <v>1E-3</v>
+        <v>0.01</v>
       </c>
       <c r="J10" s="10">
         <v>1</v>
-      </c>
-      <c r="K10" s="10">
-        <f ca="1">SUM(B44:B45,F44:F45,J44:J45,N44:N45)</f>
-        <v>-14.278453231093525</v>
-      </c>
-      <c r="L10" s="10">
-        <f ca="1">SUM(D54:D56,H54:H56,L54:L56,P54:P56)</f>
-        <v>3.9340438812285168</v>
-      </c>
-      <c r="M10" s="10">
-        <f ca="1">K10-L10</f>
-        <v>-18.21249711232204</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
@@ -5480,54 +5548,35 @@
         <v>1</v>
       </c>
       <c r="C11" s="10">
-        <f ca="1"/>
-        <v>0.67018988976043981</v>
+        <v>0.79493213050507716</v>
       </c>
       <c r="D11" s="10">
-        <f ca="1"/>
-        <v>0.79535799282755348</v>
+        <v>0.50646502851856312</v>
       </c>
       <c r="E11" s="10">
         <v>1</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="H11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="I11" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="J11" s="11" t="s">
-        <v>92</v>
-      </c>
+        <v>158</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C12" s="10">
-        <f ca="1"/>
-        <v>0.49384985314947272</v>
+        <v>8.7887546277828577E-2</v>
       </c>
       <c r="D12" s="10">
-        <f ca="1"/>
-        <v>0.63998680112093009</v>
+        <v>0.62519852422195021</v>
       </c>
       <c r="E12" s="10">
         <v>1</v>
       </c>
       <c r="G12" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="H12" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="I12" s="10">
-        <v>0.1</v>
-      </c>
-      <c r="J12" s="10">
         <v>0.1</v>
       </c>
     </row>
@@ -5536,12 +5585,10 @@
         <v>24</v>
       </c>
       <c r="C13" s="10">
-        <f ca="1"/>
-        <v>0.30953012386611778</v>
+        <v>0.18662228837384232</v>
       </c>
       <c r="D13" s="10">
-        <f ca="1"/>
-        <v>0.76304968156563047</v>
+        <v>0.64901336006523913</v>
       </c>
       <c r="E13" s="10">
         <v>1</v>
@@ -5570,20 +5617,16 @@
         <v>28</v>
       </c>
       <c r="C16" s="10">
-        <f t="array" ref="C16:F18" ca="1">RAND()</f>
-        <v>0.10683435612545189</v>
+        <v>0.9611090061897698</v>
       </c>
       <c r="D16" s="10">
-        <f ca="1"/>
-        <v>0.83224002852933887</v>
+        <v>0.80682302190172417</v>
       </c>
       <c r="E16" s="10">
-        <f ca="1"/>
-        <v>0.97484273416361344</v>
+        <v>0.90668301302587362</v>
       </c>
       <c r="F16" s="10">
-        <f ca="1"/>
-        <v>0.49581197062650151</v>
+        <v>0.44243955503220356</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -5591,20 +5634,16 @@
         <v>29</v>
       </c>
       <c r="C17" s="10">
-        <f ca="1"/>
-        <v>0.83715290542919341</v>
+        <v>0.6134094746035148</v>
       </c>
       <c r="D17" s="10">
-        <f ca="1"/>
-        <v>0.46952146058436373</v>
+        <v>0.35035618352074538</v>
       </c>
       <c r="E17" s="10">
-        <f ca="1"/>
-        <v>0.24612257315133756</v>
+        <v>0.52778658203251594</v>
       </c>
       <c r="F17" s="10">
-        <f ca="1"/>
-        <v>0.1872588323522808</v>
+        <v>0.29778919665771675</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
@@ -5612,20 +5651,16 @@
         <v>99</v>
       </c>
       <c r="C18" s="10">
-        <f ca="1"/>
-        <v>0.31239246177329849</v>
+        <v>0.45178034535543243</v>
       </c>
       <c r="D18" s="10">
-        <f ca="1"/>
-        <v>0.23738584580546396</v>
+        <v>0.92009754950615574</v>
       </c>
       <c r="E18" s="10">
-        <f ca="1"/>
-        <v>0.43601606052033681</v>
+        <v>0.84852142708186207</v>
       </c>
       <c r="F18" s="10">
-        <f ca="1"/>
-        <v>0.88871788664410856</v>
+        <v>0.77436151487810689</v>
       </c>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
@@ -5673,29 +5708,29 @@
         <v>35</v>
       </c>
       <c r="B23" s="10">
-        <f ca="1">AVERAGE(I4)</f>
-        <v>0.68188901866464524</v>
+        <f>AVERAGE(I4)</f>
+        <v>1.1914625138124442</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>41</v>
       </c>
       <c r="F23" s="10">
-        <f ca="1">AVERAGE(J5)</f>
-        <v>1.1685823452596078</v>
+        <f>AVERAGE(J5)</f>
+        <v>1.7389102477255272</v>
       </c>
       <c r="I23" s="10" t="s">
         <v>35</v>
       </c>
       <c r="J23" s="10">
-        <f ca="1">I6</f>
-        <v>0.90091940285189342</v>
+        <f>I6</f>
+        <v>0.91975255588085292</v>
       </c>
       <c r="M23" s="10" t="s">
         <v>37</v>
       </c>
       <c r="N23" s="10">
-        <f ca="1">K7</f>
-        <v>0.92556300384522672</v>
+        <f>K7</f>
+        <v>1.360269228804712</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
@@ -5709,8 +5744,8 @@
         <v>38</v>
       </c>
       <c r="J24" s="10">
-        <f ca="1">L6</f>
-        <v>1.2534177366265338</v>
+        <f>L6</f>
+        <v>0.99942380802578623</v>
       </c>
       <c r="M24" s="10" t="s">
         <v>36</v>
@@ -5721,29 +5756,29 @@
         <v>37</v>
       </c>
       <c r="B25" s="10">
-        <f ca="1">AVERAGE(K4)</f>
-        <v>0.57504488472849247</v>
+        <f>AVERAGE(K4)</f>
+        <v>1.5401717056182314</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>35</v>
       </c>
       <c r="F25" s="10">
-        <f ca="1">AVERAGE(I5)</f>
-        <v>1.0498280216795606</v>
+        <f>AVERAGE(I5)</f>
+        <v>1.5264672223421094</v>
       </c>
       <c r="I25" s="10" t="s">
         <v>45</v>
       </c>
       <c r="J25" s="10">
-        <f ca="1">AVERAGE(I6,L6)</f>
-        <v>1.0771685697392135</v>
+        <f>AVERAGE(I6,L6)</f>
+        <v>0.95958818195331963</v>
       </c>
       <c r="M25" s="10" t="s">
         <v>41</v>
       </c>
       <c r="N25" s="10">
-        <f ca="1">J7</f>
-        <v>0.85325740590962007</v>
+        <f>J7</f>
+        <v>1.2980545520525868</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
@@ -5751,8 +5786,8 @@
         <v>38</v>
       </c>
       <c r="B26" s="10">
-        <f ca="1">AVERAGE(L4)</f>
-        <v>0.98657372983432767</v>
+        <f>AVERAGE(L4)</f>
+        <v>1.1167297763699846</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>40</v>
@@ -5764,8 +5799,8 @@
         <v>38</v>
       </c>
       <c r="N26" s="10">
-        <f ca="1">L7</f>
-        <v>1.1850744197231933</v>
+        <f>L7</f>
+        <v>1.0501997642192742</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
@@ -5773,29 +5808,29 @@
         <v>39</v>
       </c>
       <c r="B27" s="10">
-        <f ca="1">AVERAGE(K4:L4)</f>
-        <v>0.78080930728141007</v>
+        <f>AVERAGE(K4:L4)</f>
+        <v>1.328450740994108</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>37</v>
       </c>
       <c r="F27" s="10">
-        <f ca="1">K5</f>
-        <v>1.2851013608344153</v>
+        <f>K5</f>
+        <v>1.8365783326400957</v>
       </c>
       <c r="I27" s="10" t="s">
         <v>41</v>
       </c>
       <c r="J27" s="10">
-        <f ca="1">J6</f>
-        <v>0.94887499929680474</v>
+        <f>J6</f>
+        <v>1.2100494140707658</v>
       </c>
       <c r="M27" s="10" t="s">
         <v>47</v>
       </c>
       <c r="N27" s="10">
-        <f ca="1">AVERAGE(J7,L7)</f>
-        <v>1.0191659128164066</v>
+        <f>AVERAGE(J7,L7)</f>
+        <v>1.1741271581359305</v>
       </c>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
@@ -5806,8 +5841,8 @@
         <v>38</v>
       </c>
       <c r="F28" s="10">
-        <f ca="1">L5</f>
-        <v>1.3699438656191314</v>
+        <f>L5</f>
+        <v>1.2768907469573452</v>
       </c>
       <c r="I28" s="10" t="s">
         <v>40</v>
@@ -5821,29 +5856,29 @@
         <v>41</v>
       </c>
       <c r="B29" s="10">
-        <f ca="1">AVERAGE(J4)</f>
-        <v>0.46950371828665394</v>
+        <f>AVERAGE(J4)</f>
+        <v>1.5211645451870728</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>39</v>
       </c>
       <c r="F29" s="10">
-        <f ca="1">AVERAGE(K5:L5)</f>
-        <v>1.3275226132267735</v>
+        <f>AVERAGE(K5:L5)</f>
+        <v>1.5567345397987205</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>37</v>
       </c>
       <c r="J29" s="10">
-        <f ca="1">K6</f>
-        <v>1.0749571999056444</v>
+        <f>K6</f>
+        <v>1.2581789645393708</v>
       </c>
       <c r="M29" s="10" t="s">
         <v>35</v>
       </c>
       <c r="N29" s="10">
-        <f ca="1">I7</f>
-        <v>0.98425017116745495</v>
+        <f>I7</f>
+        <v>1.0292556516755567</v>
       </c>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
@@ -5934,12 +5969,12 @@
         <v>37</v>
       </c>
       <c r="C34" s="10">
-        <f ca="1">B23-B25</f>
-        <v>0.10684413393615277</v>
+        <f>B23-B25</f>
+        <v>-0.34870919180578719</v>
       </c>
       <c r="D34" s="10">
-        <f ca="1">1/(1+EXP(-C34/$B$31))</f>
-        <v>0.55321970806560694</v>
+        <f>1/(1+EXP(-C34/$B$31))</f>
+        <v>0.33238485373307136</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>41</v>
@@ -5948,12 +5983,12 @@
         <v>35</v>
       </c>
       <c r="G34" s="10">
-        <f ca="1">F23-F25</f>
-        <v>0.11875432358004723</v>
+        <f>F23-F25</f>
+        <v>0.21244302538341775</v>
       </c>
       <c r="H34" s="10">
-        <f ca="1">1/(1+EXP(-G34/$F$31))</f>
-        <v>0.54441548839462495</v>
+        <f>1/(1+EXP(-G34/$F$31))</f>
+        <v>0.57899875541102064</v>
       </c>
       <c r="I34" s="10" t="s">
         <v>35</v>
@@ -5962,12 +5997,12 @@
         <v>41</v>
       </c>
       <c r="K34" s="10">
-        <f ca="1">J23-$J$27</f>
-        <v>-4.7955596444911319E-2</v>
+        <f>J23-$J$27</f>
+        <v>-0.29029685818991291</v>
       </c>
       <c r="L34" s="10">
-        <f ca="1">1/(1+EXP(-K34/$J$31))</f>
-        <v>0.48501836202207999</v>
+        <f>1/(1+EXP(-K34/$J$31))</f>
+        <v>0.41026473829681481</v>
       </c>
       <c r="M34" s="10" t="s">
         <v>37</v>
@@ -5976,12 +6011,12 @@
         <v>41</v>
       </c>
       <c r="O34" s="10">
-        <f ca="1">$N$23-N25</f>
-        <v>7.2305597935606647E-2</v>
+        <f>$N$23-N25</f>
+        <v>6.221467675212522E-2</v>
       </c>
       <c r="P34" s="10">
-        <f ca="1">1/(1+EXP(-O34/$N$31))</f>
-        <v>0.53608992696830904</v>
+        <f>1/(1+EXP(-O34/$N$31))</f>
+        <v>0.5310672650467394</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -5992,12 +6027,12 @@
         <v>38</v>
       </c>
       <c r="C35" s="10">
-        <f ca="1">B23-B26</f>
-        <v>-0.30468471116968243</v>
+        <f>B23-B26</f>
+        <v>7.4732737442459563E-2</v>
       </c>
       <c r="D35" s="10">
-        <f ca="1">1/(1+EXP(-C35/$B$31))</f>
-        <v>0.35220305462393148</v>
+        <f>1/(1+EXP(-C35/$B$31))</f>
+        <v>0.53729696027560314</v>
       </c>
       <c r="I35" s="10" t="s">
         <v>38</v>
@@ -6006,12 +6041,12 @@
         <v>41</v>
       </c>
       <c r="K35" s="10">
-        <f ca="1">J24-$J$27</f>
-        <v>0.30454273732972903</v>
+        <f>J24-$J$27</f>
+        <v>-0.2106256060449796</v>
       </c>
       <c r="L35" s="10">
-        <f ca="1">1/(1+EXP(-K35/$J$31))</f>
-        <v>0.59403671956352877</v>
+        <f>1/(1+EXP(-K35/$J$31))</f>
+        <v>0.43455708988137143</v>
       </c>
       <c r="M35" s="10" t="s">
         <v>37</v>
@@ -6020,12 +6055,12 @@
         <v>38</v>
       </c>
       <c r="O35" s="10">
-        <f ca="1">$N$23-N26</f>
-        <v>-0.25951141587796656</v>
+        <f>$N$23-N26</f>
+        <v>0.31006946458543783</v>
       </c>
       <c r="P35" s="10">
-        <f ca="1">1/(1+EXP(-O35/$N$31))</f>
-        <v>0.37308075667876911</v>
+        <f>1/(1+EXP(-O35/$N$31))</f>
+        <v>0.65025014518527002</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -6036,12 +6071,12 @@
         <v>39</v>
       </c>
       <c r="C36" s="10">
-        <f ca="1">B23-B27</f>
-        <v>-9.8920288616764829E-2</v>
+        <f>B23-B27</f>
+        <v>-0.13698822718166381</v>
       </c>
       <c r="D36" s="10">
-        <f ca="1">1/(1+EXP(-C36/$B$31))</f>
-        <v>0.45070055292637023</v>
+        <f>1/(1+EXP(-C36/$B$31))</f>
+        <v>0.43193114294768986</v>
       </c>
       <c r="I36" s="10" t="s">
         <v>45</v>
@@ -6050,12 +6085,12 @@
         <v>41</v>
       </c>
       <c r="K36" s="10">
-        <f ca="1">J25-$J$27</f>
-        <v>0.12829357044240874</v>
+        <f>J25-$J$27</f>
+        <v>-0.2504612321174462</v>
       </c>
       <c r="L36" s="10">
-        <f ca="1">1/(1+EXP(-K36/$J$31))</f>
-        <v>0.54000603933781977</v>
+        <f>1/(1+EXP(-K36/$J$31))</f>
+        <v>0.42236396849632463</v>
       </c>
       <c r="M36" s="10" t="s">
         <v>37</v>
@@ -6064,12 +6099,12 @@
         <v>47</v>
       </c>
       <c r="O36" s="10">
-        <f ca="1">$N$23-N27</f>
-        <v>-9.3602908971179843E-2</v>
+        <f>$N$23-N27</f>
+        <v>0.18614207066878152</v>
       </c>
       <c r="P36" s="10">
-        <f ca="1">1/(1+EXP(-O36/$N$31))</f>
-        <v>0.4533347519042415</v>
+        <f>1/(1+EXP(-O36/$N$31))</f>
+        <v>0.59201079199128626</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.25">
@@ -6130,12 +6165,12 @@
         <v>41</v>
       </c>
       <c r="C39" s="10">
-        <f ca="1">B25-B29</f>
-        <v>0.10554116644183853</v>
+        <f>B25-B29</f>
+        <v>1.9007160431158576E-2</v>
       </c>
       <c r="D39" s="10">
-        <f ca="1">1/(1+EXP(-C39))</f>
-        <v>0.52636082685103747</v>
+        <f>1/(1+EXP(-C39))</f>
+        <v>0.50475164705550624</v>
       </c>
       <c r="E39" s="10" t="s">
         <v>35</v>
@@ -6144,12 +6179,12 @@
         <v>37</v>
       </c>
       <c r="G39" s="10">
-        <f ca="1">$F$25-F27</f>
-        <v>-0.23527333915485471</v>
+        <f>$F$25-F27</f>
+        <v>-0.31011111029798633</v>
       </c>
       <c r="H39" s="10">
-        <f ca="1">1/(1+EXP(-G39))</f>
-        <v>0.44145148868191075</v>
+        <f>1/(1+EXP(-G39))</f>
+        <v>0.42308761833629316</v>
       </c>
       <c r="I39" s="10" t="s">
         <v>41</v>
@@ -6158,12 +6193,12 @@
         <v>37</v>
       </c>
       <c r="K39" s="10">
-        <f ca="1">J27-J29</f>
-        <v>-0.12608220060883968</v>
+        <f>J27-J29</f>
+        <v>-4.8129550468605009E-2</v>
       </c>
       <c r="L39" s="10">
-        <f ca="1">1/(1+EXP(-K39))</f>
-        <v>0.46852113969263609</v>
+        <f>1/(1+EXP(-K39))</f>
+        <v>0.48796993455059356</v>
       </c>
       <c r="M39" s="10" t="s">
         <v>41</v>
@@ -6172,12 +6207,12 @@
         <v>35</v>
       </c>
       <c r="O39" s="10">
-        <f ca="1">N25-$N$29</f>
-        <v>-0.13099276525783488</v>
+        <f>N25-$N$29</f>
+        <v>0.26879890037703014</v>
       </c>
       <c r="P39" s="10">
-        <f ca="1">1/(1+EXP(-O39))</f>
-        <v>0.46729855594295383</v>
+        <f>1/(1+EXP(-O39))</f>
+        <v>0.56679801303060218</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -6188,12 +6223,12 @@
         <v>41</v>
       </c>
       <c r="C40" s="10">
-        <f ca="1">B26-B29</f>
-        <v>0.51707001154767374</v>
+        <f>B26-B29</f>
+        <v>-0.40443476881708817</v>
       </c>
       <c r="D40" s="10">
-        <f ca="1">1/(1+EXP(-C40))</f>
-        <v>0.62646238217434902</v>
+        <f>1/(1+EXP(-C40))</f>
+        <v>0.40024730688898036</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>35</v>
@@ -6202,12 +6237,12 @@
         <v>38</v>
       </c>
       <c r="G40" s="10">
-        <f ca="1">$F$25-F28</f>
-        <v>-0.32011584393957082</v>
+        <f>$F$25-F28</f>
+        <v>0.24957647538476424</v>
       </c>
       <c r="H40" s="10">
-        <f ca="1">1/(1+EXP(-G40))</f>
-        <v>0.42064751605492273</v>
+        <f>1/(1+EXP(-G40))</f>
+        <v>0.56207225429951402</v>
       </c>
       <c r="M40" s="10" t="s">
         <v>38</v>
@@ -6216,12 +6251,12 @@
         <v>35</v>
       </c>
       <c r="O40" s="10">
-        <f ca="1">N26-$N$29</f>
-        <v>0.20082424855573833</v>
+        <f>N26-$N$29</f>
+        <v>2.094411254371753E-2</v>
       </c>
       <c r="P40" s="10">
-        <f ca="1">1/(1+EXP(-O40))</f>
-        <v>0.55003800409880588</v>
+        <f>1/(1+EXP(-O40))</f>
+        <v>0.50523583674312711</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.25">
@@ -6232,12 +6267,12 @@
         <v>41</v>
       </c>
       <c r="C41" s="10">
-        <f ca="1">B27-B29</f>
-        <v>0.31130558899475613</v>
+        <f>B27-B29</f>
+        <v>-0.1927138041929648</v>
       </c>
       <c r="D41" s="10">
-        <f ca="1">1/(1+EXP(-C41))</f>
-        <v>0.57720390856460746</v>
+        <f>1/(1+EXP(-C41))</f>
+        <v>0.45197010399000831</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>35</v>
@@ -6246,12 +6281,12 @@
         <v>39</v>
       </c>
       <c r="G41" s="10">
-        <f ca="1">$F$25-F29</f>
-        <v>-0.27769459154721288</v>
+        <f>$F$25-F29</f>
+        <v>-3.0267317456611043E-2</v>
       </c>
       <c r="H41" s="10">
-        <f ca="1">1/(1+EXP(-G41))</f>
-        <v>0.43101906804159623</v>
+        <f>1/(1+EXP(-G41))</f>
+        <v>0.49243374825392083</v>
       </c>
       <c r="M41" s="10" t="s">
         <v>47</v>
@@ -6260,12 +6295,12 @@
         <v>35</v>
       </c>
       <c r="O41" s="10">
-        <f ca="1">N27-$N$29</f>
-        <v>3.4915741648951615E-2</v>
+        <f>N27-$N$29</f>
+        <v>0.14487150646037383</v>
       </c>
       <c r="P41" s="10">
-        <f ca="1">1/(1+EXP(-O41))</f>
-        <v>0.50872804872668009</v>
+        <f>1/(1+EXP(-O41))</f>
+        <v>0.53615466495697417</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.25">
@@ -6290,33 +6325,33 @@
         <v>103</v>
       </c>
       <c r="B44" s="10">
-        <f ca="1">LN(D34)+LN(D35)+LN(D36)</f>
-        <v>-2.4324995867015753</v>
+        <f>LN(D34)+LN(D35)+LN(D36)</f>
+        <v>-2.562155216862307</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>103</v>
       </c>
       <c r="F44" s="10">
-        <f ca="1">LN(H34)</f>
-        <v>-0.60804255821528952</v>
+        <f>LN(H34)</f>
+        <v>-0.54645495096063923</v>
       </c>
       <c r="I44" s="10" t="s">
         <v>103</v>
       </c>
       <c r="J44" s="10">
-        <f ca="1">LN(L34)+LN(L35)+LN(L36)</f>
-        <v>-1.8605576285325043</v>
+        <f>LN(L34)+LN(L35)+LN(L36)</f>
+        <v>-2.5862684273570409</v>
       </c>
       <c r="M44" s="10" t="s">
         <v>103</v>
       </c>
       <c r="N44" s="10">
-        <f ca="1">LN(P34)+LN(P35)+LN(P36)</f>
-        <v>-2.400538194444882</v>
+        <f>LN(P34)+LN(P35)+LN(P36)</f>
+        <v>-1.5874951555186654</v>
       </c>
       <c r="Q44" s="10">
-        <f ca="1">SUM(B44,B45,F44,F45,J44,J45,N44,N45)</f>
-        <v>-14.278453231093525</v>
+        <f>SUM(B44,B45,F44,F45,J44,J45,N44,N45)</f>
+        <v>-14.411886935682647</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.25">
@@ -6324,29 +6359,29 @@
         <v>104</v>
       </c>
       <c r="B45" s="10">
-        <f ca="1">LN(D39)+LN(D40)+LN(D41)</f>
-        <v>-1.6589945501900074</v>
+        <f>LN(D39)+LN(D40)+LN(D41)</f>
+        <v>-2.3935006573355868</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>104</v>
       </c>
       <c r="F45" s="10">
-        <f ca="1">LN(H39)+LN(H40)+LN(H41)</f>
-        <v>-2.5252501418655404</v>
+        <f>LN(H39)+LN(H40)+LN(H41)</f>
+        <v>-2.1446962055524557</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>104</v>
       </c>
       <c r="J45" s="10">
-        <f ca="1">LN(L39)</f>
-        <v>-0.75817405624556622</v>
+        <f>LN(L39)</f>
+        <v>-0.71750148455440699</v>
       </c>
       <c r="M45" s="10" t="s">
         <v>104</v>
       </c>
       <c r="N45" s="10">
-        <f ca="1">LN(P39)+LN(P40)+LN(P41)</f>
-        <v>-2.0343965148981584</v>
+        <f>LN(P39)+LN(P40)+LN(P41)</f>
+        <v>-1.8738148375415449</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.25">
@@ -6508,9 +6543,9 @@
       <c r="C54" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="10">
-        <f ca="1">$G$12*SUMSQ($C$10:$D$10)+$G$10*(SUMSQ(C16:C17)+SUMSQ(E16:E17)+SUMSQ(D16:D17))+$H$10*(C18^2+E18^2+D18^2)</f>
-        <v>0.3172493576759996</v>
+      <c r="D54" s="10" t="e">
+        <f>$G$12*SUMSQ(#REF!)+$G$10*(SUMSQ(#REF!)+SUMSQ(#REF!)+SUMSQ(#REF!))+$H$10*(#REF!^2+#REF!^2+#REF!^2)</f>
+        <v>#REF!</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>41</v>
@@ -6521,9 +6556,9 @@
       <c r="G54" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="H54" s="10">
-        <f ca="1">$H$12*SUMSQ($C$11:$D$11)+$G$10*(SUMSQ(D16:D17)+SUMSQ(C16:C17)+SUMSQ(E16:E17))+$H$10*(J16^2+I16^2+K16^2)</f>
-        <v>0.37179559362110792</v>
+      <c r="H54" s="10" t="e">
+        <f>$H$12*SUMSQ(#REF!)+$G$10*(SUMSQ(#REF!)+SUMSQ(#REF!)+SUMSQ(#REF!))+$H$10*(J16^2+I16^2+K16^2)</f>
+        <v>#REF!</v>
       </c>
       <c r="I54" s="10" t="s">
         <v>35</v>
@@ -6534,9 +6569,9 @@
       <c r="K54" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L54" s="10">
-        <f ca="1">$I$12*SUMSQ($C$12:$D$12)+$G$10*(SUMSQ($C$16:$C$17)+SUMSQ($D$16:$D$17)+SUMSQ($E$16:$E$17))+$H$10*($I$16^2+$J$16^2+$K$16^2)</f>
-        <v>0.3289677894184051</v>
+      <c r="L54" s="10" t="e">
+        <f>$I$12*SUMSQ(#REF!)+$G$10*(SUMSQ(#REF!)+SUMSQ(#REF!)+SUMSQ(#REF!))+$H$10*($I$16^2+$J$16^2+$K$16^2)</f>
+        <v>#REF!</v>
       </c>
       <c r="M54" s="10" t="s">
         <v>37</v>
@@ -6547,9 +6582,9 @@
       <c r="O54" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P54" s="10">
-        <f ca="1">$I$12*SUMSQ($C$13:$D$13)+$G$10*(SUMSQ($C$16:$C$17)+SUMSQ($D$16:$D$17)+SUMSQ($E$16:$E$17))+$H$10*($I$16^2+$J$16^2+$K$16^2)</f>
-        <v>0.33142608252372785</v>
+      <c r="P54" s="10" t="e">
+        <f>$I$12*SUMSQ(#REF!)+$G$10*(SUMSQ(#REF!)+SUMSQ(#REF!)+SUMSQ(#REF!))+$H$10*($I$16^2+$J$16^2+$K$16^2)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.25">
@@ -6562,9 +6597,9 @@
       <c r="C55" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D55" s="10">
-        <f ca="1">$G$12*SUMSQ($C$10:$D$10)+$G$10*(SUMSQ(C16:C17)+SUMSQ(F16:F17)+SUMSQ(D16:D17))+$H$10*(C18^2+F18^2+D18^2)</f>
-        <v>0.30422037569137417</v>
+      <c r="D55" s="10" t="e">
+        <f>$G$12*SUMSQ(#REF!)+$G$10*(SUMSQ(#REF!)+SUMSQ(#REF!)+SUMSQ(#REF!))+$H$10*(#REF!^2+#REF!^2+#REF!^2)</f>
+        <v>#REF!</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>41</v>
@@ -6575,9 +6610,9 @@
       <c r="G55" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="H55" s="10">
-        <f ca="1">$H$12*SUMSQ($C$11:$D$11)+$G$10*(SUMSQ(C16:C17)+SUMSQ(D16:D17)+SUMSQ(F16:F17))+$H$10*(J16^2+I16^2+L16^2)</f>
-        <v>0.29879566393553281</v>
+      <c r="H55" s="10" t="e">
+        <f>$H$12*SUMSQ(#REF!)+$G$10*(SUMSQ(#REF!)+SUMSQ(#REF!)+SUMSQ(#REF!))+$H$10*(J16^2+I16^2+C17^2)</f>
+        <v>#REF!</v>
       </c>
       <c r="I55" s="10" t="s">
         <v>38</v>
@@ -6588,9 +6623,9 @@
       <c r="K55" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L55" s="10">
-        <f ca="1">$I$12*SUMSQ($C$12:$D$12)+$G$10*(SUMSQ($F$16:$F$17)+SUMSQ($D$16:$D$17)+SUMSQ($E$16:$E$17))+$H$10*($L$16^2+$J$16^2+$K$16^2)</f>
-        <v>0.28583347079772453</v>
+      <c r="L55" s="10" t="e">
+        <f>$I$12*SUMSQ(#REF!)+$G$10*(SUMSQ(#REF!)+SUMSQ(#REF!)+SUMSQ(#REF!))+$H$10*($C$17^2+$J$16^2+$K$16^2)</f>
+        <v>#REF!</v>
       </c>
       <c r="M55" s="10" t="s">
         <v>37</v>
@@ -6601,9 +6636,9 @@
       <c r="O55" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P55" s="10">
-        <f ca="1">$I$12*SUMSQ($C$13:$D$13)+$G$10*(SUMSQ($C$16:$C$17)+SUMSQ($F$16:$F$17)+SUMSQ($E$16:$E$17))+$H$10*($I$16^2+$L$16^2+$K$16^2)</f>
-        <v>0.26820823387119636</v>
+      <c r="P55" s="10" t="e">
+        <f>$I$12*SUMSQ(#REF!)+$G$10*(SUMSQ(#REF!)+SUMSQ(#REF!)+SUMSQ(#REF!))+$H$10*($I$16^2+$C$17^2+$K$16^2)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.25">
@@ -6616,9 +6651,9 @@
       <c r="C56" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="D56" s="10">
-        <f ca="1">$G$12*SUMSQ($C$10:$D$10)+$G$10*(SUMSQ(C16:C17)+SUMSQ(B58:B59)+SUMSQ(D16:D17))+$H$10*(C18^2+C58^2+D18^2)</f>
-        <v>0.29978800778939679</v>
+      <c r="D56" s="10" t="e">
+        <f>$G$12*SUMSQ(#REF!)+$G$10*(SUMSQ(#REF!)+SUMSQ(B58:B59)+SUMSQ(#REF!))+$H$10*(#REF!^2+C58^2+#REF!^2)</f>
+        <v>#REF!</v>
       </c>
       <c r="E56" s="10" t="s">
         <v>41</v>
@@ -6629,9 +6664,9 @@
       <c r="G56" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="H56" s="10">
-        <f ca="1">$H$12*SUMSQ($C$11:$D$11)+$G$10*(SUMSQ(D16:D17)+SUMSQ(C16:C17)+SUMSQ(F58:F59))+$H$10*(D18^2+C18^2+G58^2)</f>
-        <v>0.38873935323382819</v>
+      <c r="H56" s="10" t="e">
+        <f>$H$12*SUMSQ(#REF!)+$G$10*(SUMSQ(#REF!)+SUMSQ(#REF!)+SUMSQ(F58:F59))+$H$10*(#REF!^2+#REF!^2+G58^2)</f>
+        <v>#REF!</v>
       </c>
       <c r="I56" s="10" t="s">
         <v>45</v>
@@ -6642,9 +6677,9 @@
       <c r="K56" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="L56" s="10">
-        <f ca="1">$I$12*SUMSQ($C$12:$D$12)+$G$10*(SUMSQ($J$58:$J$59)+SUMSQ($D$16:$D$17)+SUMSQ($E$16:$E$17))+$H$10*($K$58^2+$D$18^2+$E$18^2)</f>
-        <v>0.35377183904690868</v>
+      <c r="L56" s="10" t="e">
+        <f>$I$12*SUMSQ(#REF!)+$G$10*(SUMSQ($J$58:$J$59)+SUMSQ(#REF!)+SUMSQ(#REF!))+$H$10*($K$58^2+#REF!^2+#REF!^2)</f>
+        <v>#REF!</v>
       </c>
       <c r="M56" s="10" t="s">
         <v>37</v>
@@ -6655,65 +6690,65 @@
       <c r="O56" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="P56" s="10">
-        <f ca="1">$I$12*SUMSQ($C$13:$D$13)+$G$10*(SUMSQ($C$16:$C$17)+SUMSQ($N$58:$N$59)+SUMSQ($E$16:$E$17))+$H$10*($D$18^2+$O$58^2+$F$18^2)</f>
-        <v>0.38524811362331535</v>
+      <c r="P56" s="10" t="e">
+        <f>$I$12*SUMSQ(#REF!)+$G$10*(SUMSQ(#REF!)+SUMSQ($N$58:$N$59)+SUMSQ(#REF!))+$H$10*(#REF!^2+$O$58^2+#REF!^2)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="13" t="s">
+      <c r="A58" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="B58" s="10">
-        <f ca="1">AVERAGE(E16,F16)</f>
-        <v>0.73532735239505742</v>
-      </c>
-      <c r="C58" s="10">
-        <f ca="1">AVERAGE(E18,F18)</f>
-        <v>0.66236697358222263</v>
-      </c>
-      <c r="F58" s="10">
-        <f ca="1">AVERAGE(E16,F16)</f>
-        <v>0.73532735239505742</v>
-      </c>
-      <c r="G58" s="10">
-        <f ca="1">AVERAGE(E18,F18)</f>
-        <v>0.66236697358222263</v>
-      </c>
-      <c r="J58" s="10">
-        <f ca="1">AVERAGE(C16,F16)</f>
-        <v>0.3013231633759767</v>
-      </c>
-      <c r="K58" s="10">
-        <f ca="1">AVERAGE(C18,F18)</f>
-        <v>0.60055517420870352</v>
-      </c>
-      <c r="N58" s="10">
-        <f ca="1">AVERAGE(D16,F16)</f>
-        <v>0.66402599957792019</v>
-      </c>
-      <c r="O58" s="10">
-        <f ca="1">AVERAGE(D18,L16)</f>
-        <v>0.23738584580546396</v>
+      <c r="B58" s="10" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C58" s="10" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F58" s="10" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="G58" s="10" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J58" s="10" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="K58" s="10" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N58" s="10" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="O58" s="10" t="e">
+        <f>AVERAGE(#REF!,C17)</f>
+        <v>#REF!</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="13"/>
-      <c r="B59" s="10">
-        <f ca="1">AVERAGE(E17,F17)</f>
-        <v>0.21669070275180918</v>
-      </c>
-      <c r="F59" s="10">
-        <f ca="1">AVERAGE(E17,F17)</f>
-        <v>0.21669070275180918</v>
-      </c>
-      <c r="J59" s="10">
-        <f ca="1">AVERAGE(C17,F17)</f>
-        <v>0.51220586889073716</v>
-      </c>
-      <c r="N59" s="10">
-        <f ca="1">AVERAGE(D17,F17)</f>
-        <v>0.32839014646832226</v>
+      <c r="A59" s="14"/>
+      <c r="B59" s="10" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="F59" s="10" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="J59" s="10" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
+      </c>
+      <c r="N59" s="10" t="e">
+        <f>AVERAGE(#REF!,#REF!)</f>
+        <v>#REF!</v>
       </c>
     </row>
   </sheetData>
@@ -6728,10 +6763,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF663139-5F27-49CE-B6B4-785F705D853A}">
-  <dimension ref="A1:P36"/>
+  <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6751,16 +6786,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>109</v>
       </c>
     </row>
@@ -6777,45 +6812,33 @@
       <c r="D2" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>123</v>
       </c>
       <c r="I2" s="10">
-        <f ca="1">(1/'BPRH w. D'!$B$31)*1/(1+EXP($D$22/'BPRH w. D'!$B$31))*($A$27-$B$27)+1/(1+EXP($E$22))*($B$27-$C$27)</f>
-        <v>-0.71284920033778509</v>
+        <f>(1/'BPRH w. D'!$B$31)*1/(1+EXP($D$22/'BPRH w. D'!$B$31))*($A$27-$B$27)+1/(1+EXP($E$22))*($B$27-$C$27)</f>
+        <v>0.2530742875851103</v>
       </c>
       <c r="J2" s="10">
-        <f ca="1">(1/'BPRH w. D'!$B$31)*1/(1+EXP($D$22/'BPRH w. D'!$B$31))*($A$28-$B$28)+1/(1+EXP($E$22))*($B$28-$C$28)</f>
-        <v>0.52105092839720946</v>
+        <f>(1/'BPRH w. D'!$B$31)*1/(1+EXP($D$22/'BPRH w. D'!$B$31))*($A$28-$B$28)+1/(1+EXP($E$22))*($B$28-$C$28)</f>
+        <v>0.26214819052617838</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>124</v>
       </c>
       <c r="I3" s="10">
-        <f ca="1">2*'BPRH w. D'!$G$12*B5</f>
-        <v>6.4439105123974549E-3</v>
+        <f>2*'BPRH w. D'!$G$12*B5</f>
+        <v>0.13850841390439445</v>
       </c>
       <c r="J3" s="10">
-        <f ca="1">2*'BPRH w. D'!$G$12*C5</f>
-        <v>8.7452220344637566E-2</v>
-      </c>
-      <c r="L3" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="M3" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="N3" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="O3" s="10" t="s">
-        <v>100</v>
+        <f>2*'BPRH w. D'!$G$12*C5</f>
+        <v>2.4151484886020459E-2</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="11" t="s">
         <v>110</v>
       </c>
       <c r="B4" s="10" t="str">
@@ -6830,30 +6853,28 @@
         <f>'BPRH w. D'!E9</f>
         <v>d3</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="11" t="s">
         <v>125</v>
       </c>
       <c r="I4" s="10">
-        <f ca="1">I2-I3</f>
-        <v>-0.71929311085018255</v>
+        <f>I2-I3</f>
+        <v>0.11456587368071586</v>
       </c>
       <c r="J4" s="10">
-        <f ca="1">J2-J3</f>
-        <v>0.43359870805257189</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M4" s="10">
-        <f ca="1">B5+'BPRH w. D'!$I$10*I4</f>
-        <v>3.1500259451137089E-2</v>
-      </c>
-      <c r="N4" s="10">
-        <f ca="1">C5+'BPRH w. D'!$I$10*J4</f>
-        <v>0.43769470043124037</v>
-      </c>
-      <c r="O4" s="10">
-        <v>1</v>
+        <f>J2-J3</f>
+        <v>0.23799670564015793</v>
+      </c>
+      <c r="L4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="N4" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -6861,26 +6882,27 @@
         <f>'BPRH w. D'!B10</f>
         <v>User 1</v>
       </c>
-      <c r="B5" s="10">
-        <f ca="1">'BPRH w. D'!C10</f>
-        <v>3.2219552561987275E-2</v>
-      </c>
-      <c r="C5" s="10">
-        <f ca="1">'BPRH w. D'!D10</f>
-        <v>0.43726110172318777</v>
+      <c r="B5" s="13">
+        <v>0.69254206952197217</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.12075742443010229</v>
       </c>
       <c r="D5" s="10">
         <f>'BPRH w. D'!E10</f>
         <v>1</v>
       </c>
+      <c r="H5" s="11"/>
       <c r="L5" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M5" s="10">
-        <v>0.68399669865398305</v>
+        <f>B5+'BPRH w. D'!$I$10*I4</f>
+        <v>0.69368772825877933</v>
       </c>
       <c r="N5" s="10">
-        <v>0.93424428782344693</v>
+        <f>C5+'BPRH w. D'!$I$10*J4</f>
+        <v>0.12313739148650386</v>
       </c>
       <c r="O5" s="10">
         <v>1</v>
@@ -6891,33 +6913,33 @@
         <f>'BPRH w. D'!B11</f>
         <v>User 2</v>
       </c>
-      <c r="B6" s="10">
-        <f ca="1">'BPRH w. D'!C11</f>
-        <v>0.67018988976043981</v>
-      </c>
-      <c r="C6" s="10">
-        <f ca="1">'BPRH w. D'!D11</f>
-        <v>0.79535799282755348</v>
+      <c r="B6" s="13">
+        <v>0.79493213050507716</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.50646502851856312</v>
       </c>
       <c r="D6" s="10">
         <f>'BPRH w. D'!E11</f>
         <v>1</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="11" t="s">
         <v>131</v>
       </c>
       <c r="I6" s="10">
-        <f ca="1">1/(1*'BPRH w. D'!$B$31)*1/(1+EXP($D$22/'BPRH w. D'!$B$31))</f>
-        <v>1.0533875246095405</v>
+        <f>1/(1*'BPRH w. D'!$B$31)*1/(1+EXP($D$22/'BPRH w. D'!$B$31))</f>
+        <v>1.1361377141046201</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M6" s="10">
-        <v>0.72531247730847004</v>
+        <f>B6</f>
+        <v>0.79493213050507716</v>
       </c>
       <c r="N6" s="10">
-        <v>0.85351232428340096</v>
+        <f>C6</f>
+        <v>0.50646502851856312</v>
       </c>
       <c r="O6" s="10">
         <v>1</v>
@@ -6928,33 +6950,33 @@
         <f>'BPRH w. D'!B12</f>
         <v>User 3</v>
       </c>
-      <c r="B7" s="10">
-        <f ca="1">'BPRH w. D'!C12</f>
-        <v>0.49384985314947272</v>
-      </c>
-      <c r="C7" s="10">
-        <f ca="1">'BPRH w. D'!D12</f>
-        <v>0.63998680112093009</v>
+      <c r="B7" s="13">
+        <v>8.7887546277828577E-2</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.62519852422195021</v>
       </c>
       <c r="D7" s="10">
         <f>'BPRH w. D'!E12</f>
         <v>1</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="11" t="s">
         <v>132</v>
       </c>
       <c r="I7" s="10">
-        <f ca="1">2*'BPRH w. D'!$H$10*(1/1)*D27</f>
-        <v>6.2478492354659701E-2</v>
+        <f>2*'BPRH w. D'!$H$10*(1/1)*D27</f>
+        <v>9.0356069071086495E-2</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M7" s="10">
-        <v>0.60401242272206457</v>
-      </c>
-      <c r="N7" s="10">
-        <v>5.4697099972625618E-2</v>
+        <v>2</v>
+      </c>
+      <c r="M7" s="13">
+        <f>B7</f>
+        <v>8.7887546277828577E-2</v>
+      </c>
+      <c r="N7" s="13">
+        <f>C7</f>
+        <v>0.62519852422195021</v>
       </c>
       <c r="O7" s="10">
         <v>1</v>
@@ -6965,45 +6987,43 @@
         <f>'BPRH w. D'!B13</f>
         <v>User 4</v>
       </c>
-      <c r="B8" s="10">
-        <f ca="1">'BPRH w. D'!C13</f>
-        <v>0.30953012386611778</v>
-      </c>
-      <c r="C8" s="10">
-        <f ca="1">'BPRH w. D'!D13</f>
-        <v>0.76304968156563047</v>
+      <c r="B8" s="13">
+        <v>0.18662228837384232</v>
+      </c>
+      <c r="C8" s="13">
+        <v>0.64901336006523913</v>
       </c>
       <c r="D8" s="10">
         <f>'BPRH w. D'!E13</f>
         <v>1</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="H8" s="11" t="s">
         <v>133</v>
       </c>
       <c r="I8" s="10">
-        <f ca="1">I6-I7</f>
-        <v>0.99090903225488081</v>
+        <f>I6-I7</f>
+        <v>1.0457816450335335</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="13">
+        <f>B8</f>
+        <v>0.18662228837384232</v>
+      </c>
+      <c r="N8" s="13">
+        <f>C8</f>
+        <v>0.64901336006523913</v>
+      </c>
+      <c r="O8" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="L9" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="M9" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N9" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P9" s="10" t="s">
-        <v>6</v>
-      </c>
+      <c r="H9" s="11"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="11" t="s">
         <v>111</v>
       </c>
       <c r="B10" s="10" t="str">
@@ -7022,35 +7042,31 @@
         <f>'BPRH w. D'!F15</f>
         <v>Item 4</v>
       </c>
-      <c r="H10" s="10" t="s">
+      <c r="H10" s="11" t="s">
         <v>134</v>
       </c>
       <c r="I10" s="10">
-        <f ca="1">$I$6*B5</f>
-        <v>3.3939674717298758E-2</v>
+        <f>$I$6*B5</f>
+        <v>0.78682316378797634</v>
       </c>
       <c r="J10" s="10">
-        <f ca="1">$I$6*C5</f>
-        <v>0.46060538955222929</v>
-      </c>
-      <c r="L10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="M10" s="10">
-        <f ca="1">B11+'BPRH w. D'!$I$10*I12</f>
-        <v>0.1068469289289441</v>
-      </c>
-      <c r="N10" s="10">
-        <f ca="1">C11+'BPRH w. D'!$I$10*Iteration1!I20</f>
-        <v>0.8320566907369833</v>
-      </c>
-      <c r="O10" s="10">
-        <f ca="1">D11+'BPRH w. D'!$I$10*Iteration1!I28</f>
-        <v>0.97477340386235911</v>
-      </c>
-      <c r="P10" s="10">
-        <f ca="1">E11+'BPRH w. D'!$I$10*Iteration1!I36</f>
-        <v>0.49574264032524723</v>
+        <f>$I$6*C5</f>
+        <v>0.13719706415317781</v>
+      </c>
+      <c r="L10" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -7058,51 +7074,47 @@
         <f>'BPRH w. D'!B16</f>
         <v>d1</v>
       </c>
-      <c r="B11" s="10">
-        <f ca="1">'BPRH w. D'!C16</f>
-        <v>0.10683435612545189</v>
-      </c>
-      <c r="C11" s="10">
-        <f ca="1">'BPRH w. D'!D16</f>
-        <v>0.83224002852933887</v>
-      </c>
-      <c r="D11" s="10">
-        <f ca="1">'BPRH w. D'!E16</f>
-        <v>0.97484273416361344</v>
-      </c>
-      <c r="E11" s="10">
-        <f ca="1">'BPRH w. D'!F16</f>
-        <v>0.49581197062650151</v>
-      </c>
-      <c r="H11" s="10" t="s">
+      <c r="B11" s="13">
+        <v>0.9611090061897698</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.80682302190172417</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.90668301302587362</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0.44243955503220356</v>
+      </c>
+      <c r="H11" s="11" t="s">
         <v>135</v>
       </c>
       <c r="I11" s="10">
-        <f ca="1">2*1*'BPRH w. D'!$G$10*A27</f>
-        <v>2.1366871225090379E-2</v>
+        <f>2*1*'BPRH w. D'!$G$10*A27</f>
+        <v>0.19222180123795396</v>
       </c>
       <c r="J11" s="10">
-        <f ca="1">2*1*'BPRH w. D'!$G$10*A28</f>
-        <v>0.16743058108583869</v>
+        <f>2*1*'BPRH w. D'!$G$10*A28</f>
+        <v>0.12268189492070297</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="M11" s="10">
-        <f ca="1">B12+'BPRH w. D'!$I$10*J12</f>
-        <v>0.83744608023765976</v>
+        <f>B11+'BPRH w. D'!$I$10*I12</f>
+        <v>0.96705501981526998</v>
       </c>
       <c r="N11" s="10">
-        <f ca="1">C12+'BPRH w. D'!$I$10*Iteration1!J20</f>
-        <v>0.46919833998937843</v>
+        <f>C11+'BPRH w. D'!$I$10*Iteration1!I20</f>
+        <v>0.80141403827449398</v>
       </c>
       <c r="O11" s="10">
-        <f ca="1">D12+'BPRH w. D'!$I$10*Iteration1!J28</f>
-        <v>0.24615793655880255</v>
+        <f>D11+'BPRH w. D'!$I$10*Iteration1!I28</f>
+        <v>0.90692259157882293</v>
       </c>
       <c r="P11" s="10">
-        <f ca="1">E12+'BPRH w. D'!$I$10*Iteration1!J36</f>
-        <v>0.18729419575974579</v>
+        <f>E11+'BPRH w. D'!$I$10*Iteration1!I36</f>
+        <v>0.44267913358515293</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -7110,51 +7122,47 @@
         <f>'BPRH w. D'!B17</f>
         <v>d2</v>
       </c>
-      <c r="B12" s="10">
-        <f ca="1">'BPRH w. D'!C17</f>
-        <v>0.83715290542919341</v>
-      </c>
-      <c r="C12" s="10">
-        <f ca="1">'BPRH w. D'!D17</f>
-        <v>0.46952146058436373</v>
-      </c>
-      <c r="D12" s="10">
-        <f ca="1">'BPRH w. D'!E17</f>
-        <v>0.24612257315133756</v>
-      </c>
-      <c r="E12" s="10">
-        <f ca="1">'BPRH w. D'!F17</f>
-        <v>0.1872588323522808</v>
-      </c>
-      <c r="H12" s="10" t="s">
+      <c r="B12" s="13">
+        <v>0.6134094746035148</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.35035618352074538</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.52778658203251594</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0.29778919665771675</v>
+      </c>
+      <c r="H12" s="11" t="s">
         <v>136</v>
       </c>
       <c r="I12" s="10">
-        <f ca="1">I10-I11</f>
-        <v>1.2572803492208379E-2</v>
+        <f>I10-I11</f>
+        <v>0.59460136255002238</v>
       </c>
       <c r="J12" s="10">
-        <f ca="1">J10-J11</f>
-        <v>0.2931748084663906</v>
+        <f>J10-J11</f>
+        <v>1.4515169232474839E-2</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="M12" s="10">
-        <f ca="1">B13+'BPRH w. D'!$I$10*Iteration1!I8</f>
-        <v>0.3133833708055534</v>
+        <f>B12+'BPRH w. D'!$I$10*J12</f>
+        <v>0.61355462629583957</v>
       </c>
       <c r="N12" s="10">
-        <f ca="1">C13+'BPRH w. D'!$I$10*Iteration1!I16</f>
-        <v>0.23681415941219144</v>
+        <f>C12+'BPRH w. D'!$I$10*Iteration1!J20</f>
+        <v>0.34899368436617523</v>
       </c>
       <c r="O12" s="10">
-        <f ca="1">D13+'BPRH w. D'!$I$10*Iteration1!$I$24</f>
-        <v>0.43608025499445813</v>
+        <f>D12+'BPRH w. D'!$I$10*Iteration1!J28</f>
+        <v>0.52753319120674369</v>
       </c>
       <c r="P12" s="10">
-        <f ca="1">E13+'BPRH w. D'!I10*Iteration1!I32</f>
-        <v>0.88878208111822987</v>
+        <f>E12+'BPRH w. D'!$I$10*Iteration1!J36</f>
+        <v>0.2975358058319445</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -7162,49 +7170,50 @@
         <f>'BPRH w. D'!B18</f>
         <v>bias</v>
       </c>
-      <c r="B13" s="10">
-        <f ca="1">'BPRH w. D'!C18</f>
-        <v>0.31239246177329849</v>
-      </c>
-      <c r="C13" s="10">
-        <f ca="1">'BPRH w. D'!D18</f>
-        <v>0.23738584580546396</v>
-      </c>
-      <c r="D13" s="10">
-        <f ca="1">'BPRH w. D'!E18</f>
-        <v>0.43601606052033681</v>
-      </c>
-      <c r="E13" s="10">
-        <f ca="1">'BPRH w. D'!F18</f>
-        <v>0.88871788664410856</v>
+      <c r="B13" s="13">
+        <v>0.45178034535543243</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.92009754950615574</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.84852142708186207</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0.77436151487810689</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="L13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13" s="10">
+        <f>B13+'BPRH w. D'!$I$10*Iteration1!I8</f>
+        <v>0.46223816180576777</v>
+      </c>
+      <c r="N13" s="10">
+        <f>C13+'BPRH w. D'!$I$10*Iteration1!I16</f>
+        <v>0.91277705544704346</v>
+      </c>
+      <c r="O13" s="10">
+        <f>D13+'BPRH w. D'!$I$10*Iteration1!$I$24</f>
+        <v>0.84902996294830124</v>
+      </c>
+      <c r="P13" s="10">
+        <f>E13+'BPRH w. D'!I10*Iteration1!I32</f>
+        <v>0.77487005074454607</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="11" t="s">
         <v>146</v>
       </c>
       <c r="I14" s="10">
-        <f ca="1">-1*1*1/(1+EXP($E$22))</f>
-        <v>-0.52420922411141091</v>
-      </c>
-      <c r="L14" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="M14" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="N14" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="O14" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="P14" s="10" t="s">
-        <v>6</v>
+        <f>-1*1*1/(1+EXP($E$22))</f>
+        <v>-0.54802989600999163</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="11" t="s">
         <v>113</v>
       </c>
       <c r="B15" s="10" t="str">
@@ -7223,31 +7232,27 @@
         <f>'BPRH w. D'!L3</f>
         <v>Item 4</v>
       </c>
-      <c r="H15" s="10" t="s">
+      <c r="H15" s="11" t="s">
         <v>147</v>
       </c>
       <c r="I15" s="10">
-        <f ca="1">2*'BPRH w. D'!$H$10*1*$F$27</f>
-        <v>4.7477169161092792E-2</v>
-      </c>
-      <c r="L15" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="M15" s="10">
-        <f t="array" aca="1" ref="M15:P18" ca="1">MMULT(M4:O7,M10:P12)</f>
-        <v>0.68329478800531129</v>
-      </c>
-      <c r="N15" s="10">
-        <f ca="1"/>
-        <v>0.46838978791294722</v>
-      </c>
-      <c r="O15" s="10">
-        <f ca="1"/>
-        <v>0.57452789442306784</v>
-      </c>
-      <c r="P15" s="10">
-        <f ca="1"/>
-        <v>0.98637577981503888</v>
+        <f>2*'BPRH w. D'!$H$10*1*$F$27</f>
+        <v>0.18401950990123117</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -7256,421 +7261,4346 @@
         <v>User 1</v>
       </c>
       <c r="B16" s="10">
-        <f t="array" aca="1" ref="B16:E19" ca="1">MMULT(B5:D8,B11:E13)</f>
-        <v>0.68188901866464524</v>
+        <f t="array" ref="B16:E19">MMULT(B5:D8,B11:E13)</f>
+        <v>1.1914625138124442</v>
       </c>
       <c r="C16" s="10">
-        <f ca="1"/>
-        <v>0.46950371828665394</v>
+        <v>1.5211645451870728</v>
       </c>
       <c r="D16" s="10">
-        <f ca="1"/>
-        <v>0.57504488472849247</v>
+        <v>1.5401717056182314</v>
       </c>
       <c r="E16" s="10">
-        <f ca="1"/>
-        <v>0.98657372983432767</v>
-      </c>
-      <c r="H16" s="10" t="s">
+        <v>1.1167297763699846</v>
+      </c>
+      <c r="H16" s="11" t="s">
         <v>148</v>
       </c>
       <c r="I16" s="10">
-        <f ca="1">I14-I15</f>
-        <v>-0.5716863932725037</v>
+        <f>I14-I15</f>
+        <v>-0.73204940591122281</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M16" s="10">
-        <f ca="1"/>
-        <v>1.1688455342764374</v>
+        <f t="array" ref="M16:P19">MMULT(M5:O8,M11:P13)</f>
+        <v>1.2086238778192178</v>
       </c>
       <c r="N16" s="10">
-        <f ca="1"/>
-        <v>1.2442840579605667</v>
+        <v>1.5116823109904867</v>
       </c>
       <c r="O16" s="10">
-        <f ca="1"/>
-        <v>1.3327936913044853</v>
+        <v>1.5431100962949293</v>
       </c>
       <c r="P16" s="10">
-        <f ca="1"/>
-        <v>1.4028469430137369</v>
-      </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.118588916272776</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="str">
         <f>'BPRH w. D'!H5</f>
         <v>User 2</v>
       </c>
       <c r="B17" s="10">
-        <f ca="1"/>
-        <v>1.0498280216795606</v>
+        <v>1.5264672223421094</v>
       </c>
       <c r="C17" s="10">
-        <f ca="1"/>
-        <v>1.1685823452596078</v>
+        <v>1.7389102477255272</v>
       </c>
       <c r="D17" s="10">
-        <f ca="1"/>
-        <v>1.2851013608344153</v>
+        <v>1.8365783326400957</v>
       </c>
       <c r="E17" s="10">
-        <f ca="1"/>
-        <v>1.3699438656191314</v>
-      </c>
+        <v>1.2768907469573452</v>
+      </c>
+      <c r="H17" s="11"/>
       <c r="L17" s="10" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" s="10">
-        <f ca="1"/>
-        <v>1.1056513319254764</v>
+        <v>1.5417252303277686</v>
       </c>
       <c r="N17" s="10">
-        <f ca="1"/>
-        <v>1.2407818247459683</v>
+        <v>1.7265999206145777</v>
       </c>
       <c r="O17" s="10">
-        <f ca="1"/>
-        <v>1.3531943999373852</v>
+        <v>1.8371489836042532</v>
       </c>
       <c r="P17" s="10">
-        <f ca="1"/>
-        <v>1.4082083080276677</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+        <v>1.2774613979215028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="str">
         <f>'BPRH w. D'!H6</f>
         <v>User 3</v>
       </c>
       <c r="B18" s="10">
-        <f ca="1"/>
-        <v>0.90091940285189342</v>
+        <v>0.91975255588085292</v>
       </c>
       <c r="C18" s="10">
-        <f ca="1"/>
-        <v>0.94887499929680474</v>
+        <v>1.2100494140707658</v>
       </c>
       <c r="D18" s="10">
-        <f ca="1"/>
-        <v>1.0749571999056444</v>
+        <v>1.2581789645393708</v>
       </c>
       <c r="E18" s="10">
-        <f ca="1"/>
-        <v>1.2534177366265338</v>
-      </c>
-      <c r="H18" s="10" t="s">
+        <v>0.99942380802578623</v>
+      </c>
+      <c r="H18" s="11" t="s">
         <v>137</v>
       </c>
       <c r="I18" s="10">
-        <f ca="1">$I$14*B5</f>
-        <v>-1.6889786649736171E-2</v>
+        <f>$I$14*B5</f>
+        <v>-0.37953375834267078</v>
       </c>
       <c r="J18" s="10">
-        <f ca="1">$I$14*C5</f>
-        <v>-0.22921630286841299</v>
+        <f>$I$14*C5</f>
+        <v>-6.6178678752863387E-2</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="M18" s="10">
-        <f ca="1"/>
-        <v>0.42372611518077991</v>
+        <v>0.93082370150269789</v>
       </c>
       <c r="N18" s="10">
-        <f ca="1"/>
-        <v>0.76505052553572928</v>
+        <v>1.2014017052521084</v>
       </c>
       <c r="O18" s="10">
-        <f ca="1"/>
-        <v>1.0383196255314071</v>
+        <v>1.2585501368066452</v>
       </c>
       <c r="P18" s="10">
-        <f ca="1"/>
-        <v>1.1984612436974789</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+        <v>0.99979498029306069</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="str">
         <f>'BPRH w. D'!H7</f>
         <v>User 4</v>
       </c>
       <c r="B19" s="10">
-        <f ca="1"/>
-        <v>0.98425017116745495</v>
+        <v>1.0292556516755567</v>
       </c>
       <c r="C19" s="10">
-        <f ca="1"/>
-        <v>0.85325740590962007</v>
+        <v>1.2980545520525868</v>
       </c>
       <c r="D19" s="10">
-        <f ca="1"/>
-        <v>0.92556300384522672</v>
+        <v>1.360269228804712</v>
       </c>
       <c r="E19" s="10">
-        <f ca="1"/>
-        <v>1.1850744197231933</v>
-      </c>
-      <c r="H19" s="10" t="s">
+        <v>1.0501997642192742</v>
+      </c>
+      <c r="H19" s="11" t="s">
         <v>138</v>
       </c>
       <c r="I19" s="10">
-        <f ca="1">2*1*'BPRH w. D'!$G$10*Iteration1!C27</f>
-        <v>0.16644800570586779</v>
+        <f>2*1*'BPRH w. D'!$G$10*Iteration1!C27</f>
+        <v>0.16136460438034483</v>
       </c>
       <c r="J19" s="10">
-        <f ca="1">2*1*'BPRH w. D'!$G$10*Iteration1!C28</f>
-        <v>9.3904292116872748E-2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H20" s="10" t="s">
+        <f>2*1*'BPRH w. D'!$G$10*Iteration1!C28</f>
+        <v>7.0071236704149081E-2</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M19" s="10">
+        <v>1.0409173321829399</v>
+      </c>
+      <c r="N19" s="10">
+        <v>1.2888403409367903</v>
+      </c>
+      <c r="O19" s="10">
+        <v>1.3606580213377037</v>
+      </c>
+      <c r="P19" s="10">
+        <v>1.0505885567522659</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H20" s="11" t="s">
         <v>139</v>
       </c>
       <c r="I20" s="10">
-        <f ca="1">I18-I19</f>
-        <v>-0.18333779235560396</v>
+        <f>I18-I19</f>
+        <v>-0.54089836272301561</v>
       </c>
       <c r="J20" s="10">
-        <f ca="1">J18-J19</f>
-        <v>-0.32312059498528573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
+        <f>J18-J19</f>
+        <v>-0.13624991545701248</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="D21" s="10" t="s">
+      <c r="D21" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E21" s="10" t="s">
+      <c r="E21" s="11" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="H21" s="11"/>
+      <c r="L21" s="11" t="s">
+        <v>114</v>
+      </c>
+      <c r="M21" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="N21" s="13"/>
+      <c r="O21" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="P21" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q21" s="13"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="str">
         <f>B1</f>
         <v>Sampled I</v>
       </c>
       <c r="B22" s="10">
-        <f ca="1">AVERAGE(B16)</f>
-        <v>0.68188901866464524</v>
+        <f>AVERAGE(B16)</f>
+        <v>1.1914625138124442</v>
       </c>
       <c r="D22" s="10">
-        <f ca="1">B22-B23</f>
-        <v>-5.343833373041218E-2</v>
+        <f>B22-B23</f>
+        <v>-0.13698822718166381</v>
       </c>
       <c r="E22" s="10">
-        <f ca="1">B23-B24</f>
-        <v>-9.691267613428145E-2</v>
-      </c>
-      <c r="H22" s="10" t="s">
+        <f>B23-B24</f>
+        <v>-0.1927138041929648</v>
+      </c>
+      <c r="H22" s="11" t="s">
         <v>149</v>
       </c>
       <c r="I22" s="10">
-        <f ca="1">0.5*(-'BPRH w. D'!$B$31*1/(1+EXP($D$22/'BPRH w. D'!$B$31))+1/(1+EXP($E$22)))</f>
-        <v>0.13043117147951289</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+        <f>0.5*(-'BPRH w. D'!$B$31*1/(1+EXP($D$22/'BPRH w. D'!$B$31))+1/(1+EXP($E$22)))</f>
+        <v>0.13199773374191831</v>
+      </c>
+      <c r="L22" s="13" t="s">
+        <v>155</v>
+      </c>
+      <c r="M22" s="13">
+        <f>AVERAGE(M16)</f>
+        <v>1.2086238778192178</v>
+      </c>
+      <c r="N22" s="13"/>
+      <c r="O22" s="13">
+        <f>M22-M23</f>
+        <v>-0.12222562846463503</v>
+      </c>
+      <c r="P22" s="13">
+        <f>M23-M24</f>
+        <v>-0.18083280470663388</v>
+      </c>
+      <c r="Q22" s="13"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="str">
         <f>C1</f>
         <v>Sampled J</v>
       </c>
       <c r="B23" s="10">
-        <f ca="1">AVERAGE(D11,E11)</f>
-        <v>0.73532735239505742</v>
-      </c>
-      <c r="H23" s="10" t="s">
+        <f>AVERAGE(D16,E16)</f>
+        <v>1.328450740994108</v>
+      </c>
+      <c r="H23" s="11" t="s">
         <v>150</v>
       </c>
       <c r="I23" s="10">
-        <f ca="1">2*'BPRH w. D'!$H$10*0.5*Iteration1!$E$27</f>
-        <v>6.6236697358222268E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+        <f>2*'BPRH w. D'!$H$10*0.5*Iteration1!$E$27</f>
+        <v>8.1144147097998442E-2</v>
+      </c>
+      <c r="L23" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="M23" s="13">
+        <f>AVERAGE(O16,P16)</f>
+        <v>1.3308495062838528</v>
+      </c>
+      <c r="N23" s="13"/>
+      <c r="O23" s="13"/>
+      <c r="P23" s="13"/>
+      <c r="Q23" s="13"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="str">
         <f>D1</f>
         <v>Sampled K</v>
       </c>
       <c r="B24" s="10">
-        <f ca="1">AVERAGE(C11)</f>
-        <v>0.83224002852933887</v>
-      </c>
-      <c r="H24" s="10" t="s">
+        <f>AVERAGE(C16)</f>
+        <v>1.5211645451870728</v>
+      </c>
+      <c r="H24" s="11" t="s">
         <v>151</v>
       </c>
       <c r="I24" s="10">
-        <f ca="1">I22-I23</f>
-        <v>6.4194474121290618E-2</v>
+        <f>I22-I23</f>
+        <v>5.0853586643919868E-2</v>
+      </c>
+      <c r="L24" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="M24" s="13">
+        <f>AVERAGE(N16)</f>
+        <v>1.5116823109904867</v>
+      </c>
+      <c r="N24" s="13"/>
+      <c r="O24" s="13"/>
+      <c r="P24" s="13"/>
+      <c r="Q24" s="13"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H25" s="11"/>
+      <c r="L25" s="13"/>
+      <c r="M25" s="13"/>
+      <c r="N25" s="13"/>
+      <c r="O25" s="13"/>
+      <c r="P25" s="13"/>
+      <c r="Q25" s="13"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="E26" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="H26" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="I26" s="10">
+        <f>$I$22*B5</f>
+        <v>9.1413983697838361E-2</v>
+      </c>
+      <c r="J26" s="10">
+        <f>$I$22*C5</f>
+        <v>1.5939706357284464E-2</v>
+      </c>
+      <c r="L26" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="M26" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="N26" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="O26" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="P26" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q26" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="10">
+        <f>AVERAGE(B11)</f>
+        <v>0.9611090061897698</v>
+      </c>
+      <c r="B27" s="10">
+        <f>AVERAGE(D11,E11)</f>
+        <v>0.67456128402903859</v>
+      </c>
+      <c r="C27" s="10">
+        <f>AVERAGE(C11)</f>
+        <v>0.80682302190172417</v>
+      </c>
+      <c r="D27" s="10">
+        <f>AVERAGE(B13)</f>
+        <v>0.45178034535543243</v>
+      </c>
+      <c r="E27" s="10">
+        <f>AVERAGE(D13,E13)</f>
+        <v>0.81144147097998442</v>
+      </c>
+      <c r="F27" s="10">
+        <f>AVERAGE(C13)</f>
+        <v>0.92009754950615574</v>
+      </c>
+      <c r="H27" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="I27" s="10">
+        <f>2*0.5*'BPRH w. D'!$G$10*Iteration1!B27</f>
+        <v>6.7456128402903867E-2</v>
+      </c>
+      <c r="J27" s="10">
+        <f>2*0.5*'BPRH w. D'!$G$10*Iteration1!B28</f>
+        <v>4.1278788934511638E-2</v>
+      </c>
+      <c r="L27" s="13">
+        <f>AVERAGE(M11)</f>
+        <v>0.96705501981526998</v>
+      </c>
+      <c r="M27" s="13">
+        <f>AVERAGE(O11,P11)</f>
+        <v>0.6748008625819879</v>
+      </c>
+      <c r="N27" s="13">
+        <f>AVERAGE(N11)</f>
+        <v>0.80141403827449398</v>
+      </c>
+      <c r="O27" s="13">
+        <f>AVERAGE(M13)</f>
+        <v>0.46223816180576777</v>
+      </c>
+      <c r="P27" s="13">
+        <f>AVERAGE(O13,P13)</f>
+        <v>0.8119500068464236</v>
+      </c>
+      <c r="Q27" s="13">
+        <f>AVERAGE(N13)</f>
+        <v>0.91277705544704346</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="10">
+        <f>AVERAGE(B12)</f>
+        <v>0.6134094746035148</v>
+      </c>
+      <c r="B28" s="10">
+        <f>AVERAGE(D12,E12)</f>
+        <v>0.41278788934511634</v>
+      </c>
+      <c r="C28" s="10">
+        <f>AVERAGE(C12)</f>
+        <v>0.35035618352074538</v>
+      </c>
+      <c r="H28" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="I28" s="10">
+        <f>I26-I27</f>
+        <v>2.3957855294934494E-2</v>
+      </c>
+      <c r="J28" s="10">
+        <f>J26-J27</f>
+        <v>-2.5339082577227175E-2</v>
+      </c>
+      <c r="L28" s="13">
+        <f>AVERAGE(M12)</f>
+        <v>0.61355462629583957</v>
+      </c>
+      <c r="M28" s="13">
+        <f>AVERAGE(O12,P12)</f>
+        <v>0.41253449851934409</v>
+      </c>
+      <c r="N28" s="13">
+        <f>AVERAGE(N12)</f>
+        <v>0.34899368436617523</v>
+      </c>
+      <c r="O28" s="13"/>
+      <c r="P28" s="13"/>
+      <c r="Q28" s="13"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="B30" s="15">
+        <f>obj_t!L10</f>
+        <v>-20.332340153146689</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>152</v>
+      </c>
+      <c r="I30" s="10">
+        <f>0.5*(-'BPRH w. D'!$B$31*1/(1+EXP($D$22/'BPRH w. D'!$B$31))+1/(1+EXP($E$22)))</f>
+        <v>0.13199773374191831</v>
+      </c>
+      <c r="L30" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M30" s="15">
+        <f>'obj_t+1'!L10</f>
+        <v>-20.242030688989942</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H31" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="I31" s="10">
+        <f>2*'BPRH w. D'!$H$10*0.5*Iteration1!$E$27</f>
+        <v>8.1144147097998442E-2</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="M31" s="10">
+        <f>M30-B30</f>
+        <v>9.0309464156746344E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H32" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="I32" s="10">
+        <f>I30-I31</f>
+        <v>5.0853586643919868E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H34" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="I34" s="10">
+        <f>$I$22*B5</f>
+        <v>9.1413983697838361E-2</v>
+      </c>
+      <c r="J34" s="10">
+        <f>$I$22*C5</f>
+        <v>1.5939706357284464E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H35" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="I35" s="10">
+        <f>2*0.5*'BPRH w. D'!$G$10*Iteration1!B27</f>
+        <v>6.7456128402903867E-2</v>
+      </c>
+      <c r="J35" s="10">
+        <f>2*0.5*'BPRH w. D'!$G$10*Iteration1!B28</f>
+        <v>4.1278788934511638E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="H36" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="I36" s="10">
+        <f>I34-I35</f>
+        <v>2.3957855294934494E-2</v>
+      </c>
+      <c r="J36" s="10">
+        <f>J34-J35</f>
+        <v>-2.5339082577227175E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="13"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="11"/>
+      <c r="F40" s="11"/>
+      <c r="G40" s="13"/>
+      <c r="H40" s="13"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="13"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="13"/>
+      <c r="P40" s="13"/>
+      <c r="Q40" s="13"/>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="13"/>
+      <c r="B41" s="13"/>
+      <c r="C41" s="13"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="G41" s="13"/>
+      <c r="H41" s="13"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="13"/>
+      <c r="M41" s="13"/>
+      <c r="N41" s="13"/>
+      <c r="O41" s="13"/>
+      <c r="P41" s="13"/>
+      <c r="Q41" s="13"/>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="13"/>
+      <c r="B42" s="13"/>
+      <c r="C42" s="13"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="G42" s="13"/>
+      <c r="H42" s="13"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
+      <c r="K42" s="13"/>
+      <c r="L42" s="13"/>
+      <c r="M42" s="13"/>
+      <c r="N42" s="13"/>
+      <c r="O42" s="13"/>
+      <c r="P42" s="13"/>
+      <c r="Q42" s="13"/>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="13"/>
+      <c r="B43" s="13"/>
+      <c r="C43" s="13"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="G43" s="13"/>
+      <c r="H43" s="13"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
+      <c r="K43" s="13"/>
+      <c r="L43" s="13"/>
+      <c r="M43" s="13"/>
+      <c r="N43" s="13"/>
+      <c r="O43" s="13"/>
+      <c r="P43" s="13"/>
+      <c r="Q43" s="13"/>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" s="13"/>
+      <c r="B44" s="13"/>
+      <c r="C44" s="13"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="G44" s="13"/>
+      <c r="H44" s="13"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
+      <c r="K44" s="13"/>
+      <c r="L44" s="13"/>
+      <c r="M44" s="13"/>
+      <c r="N44" s="13"/>
+      <c r="O44" s="13"/>
+      <c r="P44" s="13"/>
+      <c r="Q44" s="13"/>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" s="13"/>
+      <c r="B45" s="13"/>
+      <c r="C45" s="13"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
+      <c r="G45" s="13"/>
+      <c r="H45" s="13"/>
+      <c r="I45" s="13"/>
+      <c r="J45" s="13"/>
+      <c r="K45" s="13"/>
+      <c r="L45" s="13"/>
+      <c r="M45" s="13"/>
+      <c r="N45" s="13"/>
+      <c r="O45" s="13"/>
+      <c r="P45" s="13"/>
+      <c r="Q45" s="13"/>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="13"/>
+      <c r="B46" s="13"/>
+      <c r="C46" s="13"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
+      <c r="G46" s="13"/>
+      <c r="H46" s="13"/>
+      <c r="I46" s="13"/>
+      <c r="J46" s="13"/>
+      <c r="K46" s="13"/>
+      <c r="L46" s="13"/>
+      <c r="M46" s="13"/>
+      <c r="N46" s="13"/>
+      <c r="O46" s="13"/>
+      <c r="P46" s="13"/>
+      <c r="Q46" s="13"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="13"/>
+      <c r="B47" s="13"/>
+      <c r="C47" s="13"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="G47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
+      <c r="K47" s="13"/>
+      <c r="L47" s="13"/>
+      <c r="M47" s="13"/>
+      <c r="N47" s="13"/>
+      <c r="O47" s="13"/>
+      <c r="P47" s="13"/>
+      <c r="Q47" s="13"/>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="13"/>
+      <c r="B48" s="13"/>
+      <c r="C48" s="13"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="G48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
+      <c r="K48" s="13"/>
+      <c r="L48" s="13"/>
+      <c r="M48" s="13"/>
+      <c r="N48" s="13"/>
+      <c r="O48" s="13"/>
+      <c r="P48" s="13"/>
+      <c r="Q48" s="13"/>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" s="13"/>
+      <c r="B49" s="13"/>
+      <c r="C49" s="13"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="G49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
+      <c r="K49" s="13"/>
+      <c r="L49" s="13"/>
+      <c r="M49" s="13"/>
+      <c r="N49" s="13"/>
+      <c r="O49" s="13"/>
+      <c r="P49" s="13"/>
+      <c r="Q49" s="13"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="13"/>
+      <c r="C50" s="13"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="11"/>
+      <c r="F50" s="13"/>
+      <c r="G50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="13"/>
+      <c r="K50" s="13"/>
+      <c r="L50" s="13"/>
+      <c r="M50" s="11"/>
+      <c r="N50" s="13"/>
+      <c r="O50" s="13"/>
+      <c r="P50" s="13"/>
+      <c r="Q50" s="13"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" s="13"/>
+      <c r="B51" s="13"/>
+      <c r="C51" s="13"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="G51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
+      <c r="K51" s="13"/>
+      <c r="L51" s="13"/>
+      <c r="M51" s="13"/>
+      <c r="N51" s="13"/>
+      <c r="O51" s="13"/>
+      <c r="P51" s="13"/>
+      <c r="Q51" s="13"/>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11"/>
+      <c r="E52" s="11"/>
+      <c r="F52" s="11"/>
+      <c r="G52" s="11"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11"/>
+      <c r="J52" s="11"/>
+      <c r="K52" s="11"/>
+      <c r="L52" s="11"/>
+      <c r="M52" s="11"/>
+      <c r="N52" s="11"/>
+      <c r="O52" s="11"/>
+      <c r="P52" s="11"/>
+      <c r="Q52" s="13"/>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" s="13"/>
+      <c r="B53" s="13"/>
+      <c r="C53" s="13"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
+      <c r="G53" s="13"/>
+      <c r="H53" s="13"/>
+      <c r="I53" s="13"/>
+      <c r="J53" s="13"/>
+      <c r="K53" s="13"/>
+      <c r="L53" s="13"/>
+      <c r="M53" s="13"/>
+      <c r="N53" s="13"/>
+      <c r="O53" s="13"/>
+      <c r="P53" s="13"/>
+      <c r="Q53" s="13"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" s="13"/>
+      <c r="B54" s="13"/>
+      <c r="C54" s="13"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+      <c r="F54" s="13"/>
+      <c r="G54" s="13"/>
+      <c r="H54" s="13"/>
+      <c r="I54" s="13"/>
+      <c r="J54" s="13"/>
+      <c r="K54" s="13"/>
+      <c r="L54" s="13"/>
+      <c r="M54" s="13"/>
+      <c r="N54" s="13"/>
+      <c r="O54" s="13"/>
+      <c r="P54" s="13"/>
+      <c r="Q54" s="13"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" s="13"/>
+      <c r="B55" s="13"/>
+      <c r="C55" s="13"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="13"/>
+      <c r="G55" s="13"/>
+      <c r="H55" s="13"/>
+      <c r="I55" s="13"/>
+      <c r="J55" s="13"/>
+      <c r="K55" s="13"/>
+      <c r="L55" s="13"/>
+      <c r="M55" s="13"/>
+      <c r="N55" s="13"/>
+      <c r="O55" s="13"/>
+      <c r="P55" s="13"/>
+      <c r="Q55" s="13"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" s="13"/>
+      <c r="B56" s="13"/>
+      <c r="C56" s="13"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="13"/>
+      <c r="F56" s="13"/>
+      <c r="G56" s="13"/>
+      <c r="H56" s="13"/>
+      <c r="I56" s="13"/>
+      <c r="J56" s="13"/>
+      <c r="K56" s="13"/>
+      <c r="L56" s="13"/>
+      <c r="M56" s="13"/>
+      <c r="N56" s="13"/>
+      <c r="O56" s="13"/>
+      <c r="P56" s="13"/>
+      <c r="Q56" s="13"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="11"/>
+      <c r="E57" s="11"/>
+      <c r="F57" s="11"/>
+      <c r="G57" s="11"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="11"/>
+      <c r="J57" s="11"/>
+      <c r="K57" s="11"/>
+      <c r="L57" s="11"/>
+      <c r="M57" s="11"/>
+      <c r="N57" s="11"/>
+      <c r="O57" s="11"/>
+      <c r="P57" s="11"/>
+      <c r="Q57" s="13"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" s="13"/>
+      <c r="B58" s="13"/>
+      <c r="C58" s="13"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="G58" s="13"/>
+      <c r="H58" s="13"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
+      <c r="K58" s="13"/>
+      <c r="L58" s="13"/>
+      <c r="M58" s="13"/>
+      <c r="N58" s="13"/>
+      <c r="O58" s="13"/>
+      <c r="P58" s="13"/>
+      <c r="Q58" s="13"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" s="13"/>
+      <c r="B59" s="13"/>
+      <c r="C59" s="13"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="G59" s="13"/>
+      <c r="H59" s="13"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
+      <c r="K59" s="13"/>
+      <c r="L59" s="13"/>
+      <c r="M59" s="13"/>
+      <c r="N59" s="13"/>
+      <c r="O59" s="13"/>
+      <c r="P59" s="13"/>
+      <c r="Q59" s="13"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" s="13"/>
+      <c r="B60" s="13"/>
+      <c r="C60" s="13"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="G60" s="13"/>
+      <c r="H60" s="13"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="13"/>
+      <c r="N60" s="13"/>
+      <c r="O60" s="13"/>
+      <c r="P60" s="13"/>
+      <c r="Q60" s="13"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" s="13"/>
+      <c r="B61" s="13"/>
+      <c r="C61" s="13"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="G61" s="13"/>
+      <c r="H61" s="13"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
+      <c r="K61" s="13"/>
+      <c r="L61" s="13"/>
+      <c r="M61" s="13"/>
+      <c r="N61" s="13"/>
+      <c r="O61" s="13"/>
+      <c r="P61" s="13"/>
+      <c r="Q61" s="13"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" s="11"/>
+      <c r="B62" s="13"/>
+      <c r="C62" s="13"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="11"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" s="13"/>
+      <c r="B63" s="13"/>
+      <c r="C63" s="13"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="G63" s="13"/>
+      <c r="H63" s="13"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
+      <c r="K63" s="13"/>
+      <c r="L63" s="13"/>
+      <c r="M63" s="13"/>
+      <c r="N63" s="13"/>
+      <c r="O63" s="13"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="13"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" s="13"/>
+      <c r="B64" s="13"/>
+      <c r="C64" s="13"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="G64" s="13"/>
+      <c r="H64" s="13"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="13"/>
+      <c r="N64" s="13"/>
+      <c r="O64" s="13"/>
+      <c r="P64" s="13"/>
+      <c r="Q64" s="13"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" s="13"/>
+      <c r="B65" s="13"/>
+      <c r="C65" s="13"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="G65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="13"/>
+      <c r="N65" s="13"/>
+      <c r="O65" s="13"/>
+      <c r="P65" s="13"/>
+      <c r="Q65" s="13"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" s="13"/>
+      <c r="B66" s="13"/>
+      <c r="C66" s="13"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="13"/>
+      <c r="N66" s="13"/>
+      <c r="O66" s="13"/>
+      <c r="P66" s="13"/>
+      <c r="Q66" s="13"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" s="13"/>
+      <c r="B67" s="13"/>
+      <c r="C67" s="13"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="G67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
+      <c r="K67" s="13"/>
+      <c r="L67" s="13"/>
+      <c r="M67" s="13"/>
+      <c r="N67" s="13"/>
+      <c r="O67" s="13"/>
+      <c r="P67" s="13"/>
+      <c r="Q67" s="13"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" s="13"/>
+      <c r="B68" s="13"/>
+      <c r="C68" s="13"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="G68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="12"/>
+      <c r="K68" s="13"/>
+      <c r="L68" s="13"/>
+      <c r="M68" s="13"/>
+      <c r="N68" s="13"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" s="13"/>
+      <c r="B69" s="13"/>
+      <c r="C69" s="13"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="G69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
+      <c r="K69" s="13"/>
+      <c r="L69" s="13"/>
+      <c r="M69" s="13"/>
+      <c r="N69" s="13"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" s="13"/>
+      <c r="B70" s="13"/>
+      <c r="C70" s="13"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="G70" s="13"/>
+      <c r="H70" s="13"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
+      <c r="K70" s="13"/>
+      <c r="L70" s="13"/>
+      <c r="M70" s="13"/>
+      <c r="N70" s="13"/>
+      <c r="O70" s="13"/>
+      <c r="P70" s="13"/>
+      <c r="Q70" s="13"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" s="11"/>
+      <c r="B71" s="13"/>
+      <c r="C71" s="13"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="11"/>
+      <c r="F71" s="13"/>
+      <c r="G71" s="13"/>
+      <c r="H71" s="13"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="13"/>
+      <c r="K71" s="13"/>
+      <c r="L71" s="13"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="13"/>
+      <c r="O71" s="13"/>
+      <c r="P71" s="13"/>
+      <c r="Q71" s="13"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" s="13"/>
+      <c r="B72" s="13"/>
+      <c r="C72" s="13"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="13"/>
+      <c r="F72" s="13"/>
+      <c r="G72" s="13"/>
+      <c r="H72" s="13"/>
+      <c r="I72" s="13"/>
+      <c r="J72" s="13"/>
+      <c r="K72" s="13"/>
+      <c r="L72" s="13"/>
+      <c r="M72" s="13"/>
+      <c r="N72" s="13"/>
+      <c r="O72" s="13"/>
+      <c r="P72" s="13"/>
+      <c r="Q72" s="13"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" s="13"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
+      <c r="F73" s="13"/>
+      <c r="G73" s="13"/>
+      <c r="H73" s="13"/>
+      <c r="I73" s="13"/>
+      <c r="J73" s="13"/>
+      <c r="K73" s="13"/>
+      <c r="L73" s="13"/>
+      <c r="M73" s="13"/>
+      <c r="N73" s="13"/>
+      <c r="O73" s="13"/>
+      <c r="P73" s="13"/>
+      <c r="Q73" s="13"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" s="13"/>
+      <c r="B74" s="13"/>
+      <c r="C74" s="13"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="13"/>
+      <c r="F74" s="13"/>
+      <c r="G74" s="13"/>
+      <c r="H74" s="13"/>
+      <c r="I74" s="13"/>
+      <c r="J74" s="13"/>
+      <c r="K74" s="13"/>
+      <c r="L74" s="13"/>
+      <c r="M74" s="13"/>
+      <c r="N74" s="13"/>
+      <c r="O74" s="13"/>
+      <c r="P74" s="13"/>
+      <c r="Q74" s="13"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" s="13"/>
+      <c r="B75" s="13"/>
+      <c r="C75" s="13"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="13"/>
+      <c r="F75" s="13"/>
+      <c r="G75" s="13"/>
+      <c r="H75" s="13"/>
+      <c r="I75" s="13"/>
+      <c r="J75" s="13"/>
+      <c r="K75" s="13"/>
+      <c r="L75" s="13"/>
+      <c r="M75" s="13"/>
+      <c r="N75" s="13"/>
+      <c r="O75" s="13"/>
+      <c r="P75" s="13"/>
+      <c r="Q75" s="13"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" s="13"/>
+      <c r="B76" s="13"/>
+      <c r="C76" s="13"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="13"/>
+      <c r="F76" s="13"/>
+      <c r="G76" s="13"/>
+      <c r="H76" s="13"/>
+      <c r="I76" s="13"/>
+      <c r="J76" s="13"/>
+      <c r="K76" s="13"/>
+      <c r="L76" s="13"/>
+      <c r="M76" s="13"/>
+      <c r="N76" s="13"/>
+      <c r="O76" s="13"/>
+      <c r="P76" s="13"/>
+      <c r="Q76" s="13"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="13"/>
+      <c r="C77" s="13"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="13"/>
+      <c r="F77" s="13"/>
+      <c r="G77" s="13"/>
+      <c r="H77" s="13"/>
+      <c r="I77" s="13"/>
+      <c r="J77" s="13"/>
+      <c r="K77" s="13"/>
+      <c r="L77" s="13"/>
+      <c r="M77" s="13"/>
+      <c r="N77" s="13"/>
+      <c r="O77" s="13"/>
+      <c r="P77" s="13"/>
+      <c r="Q77" s="13"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" s="14"/>
+      <c r="B78" s="13"/>
+      <c r="C78" s="13"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="13"/>
+      <c r="F78" s="13"/>
+      <c r="G78" s="13"/>
+      <c r="H78" s="13"/>
+      <c r="I78" s="13"/>
+      <c r="J78" s="13"/>
+      <c r="K78" s="13"/>
+      <c r="L78" s="13"/>
+      <c r="M78" s="13"/>
+      <c r="N78" s="13"/>
+      <c r="O78" s="13"/>
+      <c r="P78" s="13"/>
+      <c r="Q78" s="13"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A77:A78"/>
+  </mergeCells>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92742D31-F2C8-44C6-A46B-FC114C7F71E8}">
+  <dimension ref="A1:Q57"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="14.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="14.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <f>N4+$I$16</f>
+        <v>1.1914625138124442</v>
+      </c>
+      <c r="J4" s="13">
+        <f>O4+$J$16</f>
+        <v>1.5211645451870728</v>
+      </c>
+      <c r="K4" s="13">
+        <f>P4+$K$16</f>
+        <v>1.5401717056182314</v>
+      </c>
+      <c r="L4" s="13">
+        <f>Q4+$L$16</f>
+        <v>1.1167297763699846</v>
+      </c>
+      <c r="N4" s="13">
+        <f t="array" ref="N4:Q7">MMULT(C10:D13,C16:F17)</f>
+        <v>0.73968216845701185</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.60106699568091704</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0.69165027853636929</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0.34236826149187782</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" ref="I5:I7" si="0">N5+$I$16</f>
+        <v>1.5264672223421094</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J7" si="1">O5+$J$16</f>
+        <v>1.7389102477255272</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" ref="K5:K7" si="2">P5+$K$16</f>
+        <v>1.8365783326400957</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" ref="L5:L7" si="3">Q5+$L$16</f>
+        <v>1.2768907469573452</v>
+      </c>
+      <c r="N5" s="13">
+        <v>1.0746868769866771</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.81881269821937142</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0.98805690555823356</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0.50252923207923839</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.91975255588085292</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2100494140707658</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="2"/>
+        <v>1.2581789645393708</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="3"/>
+        <v>0.99942380802578623</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0.46797221052542048</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.28995186456461008</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0.40965753745750877</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0.22506229314767928</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0292556516755567</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2980545520525868</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="2"/>
+        <v>1.360269228804712</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="3"/>
+        <v>1.0501997642192742</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.57747530632012434</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.37795700254643094</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.51174780172284995</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0.27583824934116741</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.69254206952197217</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.12075742443010229</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
+        <f>SUM(B42:B43,F42:F43,J42:J43,N42:N43)</f>
+        <v>-14.411886935682647</v>
+      </c>
+      <c r="K10" s="13">
+        <f>SUM(D52:D54,H52:H54,L52:L54,P52:P54)</f>
+        <v>5.9204532174640407</v>
+      </c>
+      <c r="L10" s="13">
+        <f>J10-K10</f>
+        <v>-20.332340153146689</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.79493213050507716</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.50646502851856312</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13">
+        <v>8.7887546277828577E-2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.62519852422195021</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.18662228837384232</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.64901336006523913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>0.9611090061897698</v>
+      </c>
+      <c r="D16">
+        <v>0.80682302190172417</v>
+      </c>
+      <c r="E16">
+        <v>0.90668301302587362</v>
+      </c>
+      <c r="F16">
+        <v>0.44243955503220356</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.45178034535543243</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.92009754950615574</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.84852142708186207</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0.77436151487810689</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>0.6134094746035148</v>
+      </c>
+      <c r="D17">
+        <v>0.35035618352074538</v>
+      </c>
+      <c r="E17">
+        <v>0.52778658203251594</v>
+      </c>
+      <c r="F17">
+        <v>0.29778919665771675</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="13">
+        <f>AVERAGE(I4)</f>
+        <v>1.1914625138124442</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="13">
+        <f>AVERAGE(J5)</f>
+        <v>1.7389102477255272</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="13">
+        <f>I6</f>
+        <v>0.91975255588085292</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="13">
+        <f>K7</f>
+        <v>1.360269228804712</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="13">
+        <f>L6</f>
+        <v>0.99942380802578623</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="13">
+        <f>AVERAGE(K4)</f>
+        <v>1.5401717056182314</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="13">
+        <f>AVERAGE(I5)</f>
+        <v>1.5264672223421094</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="13">
+        <f>AVERAGE(I6,L6)</f>
+        <v>0.95958818195331963</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="13">
+        <f>J7</f>
+        <v>1.2980545520525868</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="13">
+        <f>AVERAGE(L4)</f>
+        <v>1.1167297763699846</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="13">
+        <f>L7</f>
+        <v>1.0501997642192742</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="13">
+        <f>AVERAGE(K4:L4)</f>
+        <v>1.328450740994108</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="13">
+        <f>K5</f>
+        <v>1.8365783326400957</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="13">
+        <f>J6</f>
+        <v>1.2100494140707658</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="13">
+        <f>AVERAGE(J7,L7)</f>
+        <v>1.1741271581359305</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A26" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>120</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="I26" s="10">
-        <f ca="1">$I$22*B5</f>
-        <v>4.202433985205741E-3</v>
-      </c>
-      <c r="J26" s="10">
-        <f ca="1">$I$22*C5</f>
-        <v>5.7032477740177834E-2</v>
+      <c r="A26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="13">
+        <f>L5</f>
+        <v>1.2768907469573452</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A27" s="10">
-        <f ca="1">AVERAGE(B11)</f>
-        <v>0.10683435612545189</v>
-      </c>
-      <c r="B27" s="10">
-        <f ca="1">AVERAGE(D11,E11)</f>
-        <v>0.73532735239505742</v>
-      </c>
-      <c r="C27" s="10">
-        <f ca="1">AVERAGE(C11)</f>
-        <v>0.83224002852933887</v>
-      </c>
-      <c r="D27" s="10">
-        <f ca="1">AVERAGE(B13)</f>
-        <v>0.31239246177329849</v>
-      </c>
-      <c r="E27" s="10">
-        <f ca="1">AVERAGE(D13,E13)</f>
-        <v>0.66236697358222263</v>
-      </c>
-      <c r="F27" s="10">
-        <f ca="1">AVERAGE(C13)</f>
-        <v>0.23738584580546396</v>
-      </c>
-      <c r="H27" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="I27" s="10">
-        <f ca="1">2*0.5*'BPRH w. D'!$G$10*Iteration1!B27</f>
-        <v>7.353273523950575E-2</v>
-      </c>
-      <c r="J27" s="10">
-        <f ca="1">2*0.5*'BPRH w. D'!$G$10*Iteration1!B28</f>
-        <v>2.1669070275180918E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A28" s="10">
-        <f ca="1">AVERAGE(B12)</f>
-        <v>0.83715290542919341</v>
-      </c>
-      <c r="B28" s="10">
-        <f ca="1">AVERAGE(D12,E12)</f>
-        <v>0.21669070275180918</v>
-      </c>
-      <c r="C28" s="10">
-        <f ca="1">AVERAGE(C12)</f>
-        <v>0.46952146058436373</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>142</v>
-      </c>
-      <c r="I28" s="10">
-        <f ca="1">I26-I27</f>
-        <v>-6.9330301254300009E-2</v>
-      </c>
-      <c r="J28" s="10">
-        <f ca="1">J26-J27</f>
-        <v>3.5363407464996915E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H30" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="I30" s="10">
-        <f ca="1">0.5*(-'BPRH w. D'!$B$31*1/(1+EXP($D$22/'BPRH w. D'!$B$31))+1/(1+EXP($E$22)))</f>
-        <v>0.13043117147951289</v>
+      <c r="A27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="13">
+        <f>AVERAGE(J4)</f>
+        <v>1.5211645451870728</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="13">
+        <f>AVERAGE(K5:L5)</f>
+        <v>1.5567345397987205</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="13">
+        <f>K6</f>
+        <v>1.2581789645393708</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="13">
+        <f>I7</f>
+        <v>1.0292556516755567</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="13">
+        <f>$I$10*B48</f>
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="13">
+        <f>$I$10*F48</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="13">
+        <f>$I$10*J48</f>
+        <v>0.8</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="13">
+        <f>$I$10*N48</f>
+        <v>0.5</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H31" s="10" t="s">
-        <v>153</v>
-      </c>
-      <c r="I31" s="10">
-        <f ca="1">2*'BPRH w. D'!$H$10*0.5*Iteration1!$E$27</f>
-        <v>6.6236697358222268E-2</v>
+      <c r="A31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H32" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="I32" s="10">
-        <f ca="1">I30-I31</f>
-        <v>6.4194474121290618E-2</v>
-      </c>
-    </row>
-    <row r="34" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H34" s="10" t="s">
-        <v>143</v>
-      </c>
-      <c r="I34" s="10">
-        <f ca="1">$I$22*B5</f>
-        <v>4.202433985205741E-3</v>
-      </c>
-      <c r="J34" s="10">
-        <f ca="1">$I$22*C5</f>
-        <v>5.7032477740177834E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H35" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="I35" s="10">
-        <f ca="1">2*0.5*'BPRH w. D'!$G$10*Iteration1!B27</f>
-        <v>7.353273523950575E-2</v>
-      </c>
-      <c r="J35" s="10">
-        <f ca="1">2*0.5*'BPRH w. D'!$G$10*Iteration1!B28</f>
-        <v>2.1669070275180918E-2</v>
-      </c>
-    </row>
-    <row r="36" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="H36" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="I36" s="10">
-        <f ca="1">I34-I35</f>
-        <v>-6.9330301254300009E-2</v>
-      </c>
-      <c r="J36" s="10">
-        <f ca="1">J34-J35</f>
-        <v>3.5363407464996915E-2</v>
+      <c r="A32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="13">
+        <f>B21-B23</f>
+        <v>-0.34870919180578719</v>
+      </c>
+      <c r="D32" s="13">
+        <f>1/(1+EXP(-C32/$B$29))</f>
+        <v>0.33238485373307136</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="13">
+        <f>F21-F23</f>
+        <v>0.21244302538341775</v>
+      </c>
+      <c r="H32" s="13">
+        <f>1/(1+EXP(-G32/$F$29))</f>
+        <v>0.57899875541102064</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="13">
+        <f>J21-$J$25</f>
+        <v>-0.29029685818991291</v>
+      </c>
+      <c r="L32" s="13">
+        <f>1/(1+EXP(-K32/$J$29))</f>
+        <v>0.41026473829681481</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="13">
+        <f>$N$21-N23</f>
+        <v>6.221467675212522E-2</v>
+      </c>
+      <c r="P32" s="13">
+        <f>1/(1+EXP(-O32/$N$29))</f>
+        <v>0.5310672650467394</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="13">
+        <f>B21-B24</f>
+        <v>7.4732737442459563E-2</v>
+      </c>
+      <c r="D33" s="13">
+        <f>1/(1+EXP(-C33/$B$29))</f>
+        <v>0.53729696027560314</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="13">
+        <f t="shared" ref="K33" si="4">J22-$J$25</f>
+        <v>-0.2106256060449796</v>
+      </c>
+      <c r="L33" s="13">
+        <f>1/(1+EXP(-K33/$J$29))</f>
+        <v>0.43455708988137143</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" s="13">
+        <f t="shared" ref="O33:O34" si="5">$N$21-N24</f>
+        <v>0.31006946458543783</v>
+      </c>
+      <c r="P33" s="13">
+        <f>1/(1+EXP(-O33/$N$29))</f>
+        <v>0.65025014518527002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="13">
+        <f>B21-B25</f>
+        <v>-0.13698822718166381</v>
+      </c>
+      <c r="D34" s="13">
+        <f>1/(1+EXP(-C34/$B$29))</f>
+        <v>0.43193114294768986</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="13">
+        <f>J23-$J$25</f>
+        <v>-0.2504612321174462</v>
+      </c>
+      <c r="L34" s="13">
+        <f>1/(1+EXP(-K34/$J$29))</f>
+        <v>0.42236396849632463</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.18614207066878152</v>
+      </c>
+      <c r="P34" s="13">
+        <f>1/(1+EXP(-O34/$N$29))</f>
+        <v>0.59201079199128626</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="13">
+        <f>B23-B27</f>
+        <v>1.9007160431158576E-2</v>
+      </c>
+      <c r="D37" s="13">
+        <f>1/(1+EXP(-C37))</f>
+        <v>0.50475164705550624</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="13">
+        <f>$F$23-F25</f>
+        <v>-0.31011111029798633</v>
+      </c>
+      <c r="H37" s="13">
+        <f>1/(1+EXP(-G37))</f>
+        <v>0.42308761833629316</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="13">
+        <f>J25-J27</f>
+        <v>-4.8129550468605009E-2</v>
+      </c>
+      <c r="L37" s="13">
+        <f>1/(1+EXP(-K37))</f>
+        <v>0.48796993455059356</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="13">
+        <f>N23-$N$27</f>
+        <v>0.26879890037703014</v>
+      </c>
+      <c r="P37" s="13">
+        <f>1/(1+EXP(-O37))</f>
+        <v>0.56679801303060218</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="13">
+        <f>B24-B27</f>
+        <v>-0.40443476881708817</v>
+      </c>
+      <c r="D38" s="13">
+        <f>1/(1+EXP(-C38))</f>
+        <v>0.40024730688898036</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="13">
+        <f>$F$23-F26</f>
+        <v>0.24957647538476424</v>
+      </c>
+      <c r="H38" s="13">
+        <f>1/(1+EXP(-G38))</f>
+        <v>0.56207225429951402</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="13">
+        <f t="shared" ref="O38:O39" si="6">N24-$N$27</f>
+        <v>2.094411254371753E-2</v>
+      </c>
+      <c r="P38" s="13">
+        <f>1/(1+EXP(-O38))</f>
+        <v>0.50523583674312711</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="13">
+        <f>B25-B27</f>
+        <v>-0.1927138041929648</v>
+      </c>
+      <c r="D39" s="13">
+        <f>1/(1+EXP(-C39))</f>
+        <v>0.45197010399000831</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="13">
+        <f>$F$23-F27</f>
+        <v>-3.0267317456611043E-2</v>
+      </c>
+      <c r="H39" s="13">
+        <f>1/(1+EXP(-G39))</f>
+        <v>0.49243374825392083</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.14487150646037383</v>
+      </c>
+      <c r="P39" s="13">
+        <f>1/(1+EXP(-O39))</f>
+        <v>0.53615466495697417</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="13">
+        <f>LN(D32)+LN(D33)+LN(D34)</f>
+        <v>-2.562155216862307</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="13">
+        <f>LN(H32)</f>
+        <v>-0.54645495096063923</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J42" s="13">
+        <f>LN(L32)+LN(L33)+LN(L34)</f>
+        <v>-2.5862684273570409</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N42" s="13">
+        <f>LN(P32)+LN(P33)+LN(P34)</f>
+        <v>-1.5874951555186654</v>
+      </c>
+      <c r="Q42" s="13">
+        <f>SUM(B42,B43,F42,F43,J42,J43,N42,N43)</f>
+        <v>-14.411886935682647</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="13">
+        <f>LN(D37)+LN(D38)+LN(D39)</f>
+        <v>-2.3935006573355868</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="13">
+        <f>LN(H37)+LN(H38)+LN(H39)</f>
+        <v>-2.1446962055524557</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="13">
+        <f>LN(L37)</f>
+        <v>-0.71750148455440699</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N43" s="13">
+        <f>LN(P37)+LN(P38)+LN(P39)</f>
+        <v>-1.8738148375415449</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="13">
+        <v>1</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J46" s="13">
+        <v>1</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N46" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="13">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47" s="12">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N47" s="13">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="13">
+        <f>2*B46*B47/(B46+B47)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="13">
+        <f>2*F46*F47/(F46+F47)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" s="13">
+        <f>2*J46*J47/(J46+J47)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" s="13">
+        <f>2*N46*N47/(N46+N47)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="13">
+        <f>$F$12*SUMSQ($C$10:$D$10)+$F$10*(SUMSQ(C16:C17)+SUMSQ(E16:E17)+SUMSQ(D16:D17))+$G$10*(I16^2+K16^2+J16^2)</f>
+        <v>0.54392177784840556</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="13">
+        <f>$G$12*SUMSQ($C$11:$D$11)+$F$10*(SUMSQ(D16:D17)+SUMSQ(C16:C17)+SUMSQ(E16:E17))+$G$10*(J16^2+I16^2+K16^2)</f>
+        <v>0.5833444822092938</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L52" s="13">
+        <f>$H$12*SUMSQ($C$12:$D$12)+$F$10*(SUMSQ($C$16:$C$17)+SUMSQ($D$16:$D$17)+SUMSQ($E$16:$E$17))+$G$10*($I$16^2+$J$16^2+$K$16^2)</f>
+        <v>0.53436183203513299</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="13">
+        <f>$H$12*SUMSQ($C$13:$D$13)+$F$10*(SUMSQ($C$16:$C$17)+SUMSQ($D$16:$D$17)+SUMSQ($E$16:$E$17))+$G$10*($I$16^2+$J$16^2+$K$16^2)</f>
+        <v>0.54010671249323494</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="13">
+        <f>$F$12*SUMSQ($C$10:$D$10)+$F$10*(SUMSQ(C16:C17)+SUMSQ(F16:F17)+SUMSQ(D16:D17))+$G$10*(I16^2+L16^2+J16^2)</f>
+        <v>0.45026633252112336</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" s="13">
+        <f>$G$12*SUMSQ($C$11:$D$11)+$F$10*(SUMSQ(C16:C17)+SUMSQ(D16:D17)+SUMSQ(F16:F17))+$G$10*(J16^2+I16^2+L16^2)</f>
+        <v>0.48968903688201149</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L53" s="13">
+        <f>$H$12*SUMSQ($C$12:$D$12)+$F$10*(SUMSQ($F$16:$F$17)+SUMSQ($D$16:$D$17)+SUMSQ($E$16:$E$17))+$G$10*($L$16^2+$J$16^2+$K$16^2)</f>
+        <v>0.47235780558168677</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P53" s="13">
+        <f>$H$12*SUMSQ($C$13:$D$13)+$F$10*(SUMSQ($C$16:$C$17)+SUMSQ($F$16:$F$17)+SUMSQ($E$16:$E$17))+$G$10*($I$16^2+$L$16^2+$K$16^2)</f>
+        <v>0.46648417015507238</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="13">
+        <f>$F$12*SUMSQ($C$10:$D$10)+$F$10*(SUMSQ(C16:C17)+SUMSQ(B56:B57)+SUMSQ(D16:D17))+$G$10*(I17^2+L17^2+J17^2)</f>
+        <v>0.3193338190427969</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" s="13">
+        <f>$G$12*SUMSQ($C$11:$D$11)+$F$10*(SUMSQ(D16:D17)+SUMSQ(C16:C17)+SUMSQ(F56:F57))+$G$10*(J16^2+I16^2+G56^2)</f>
+        <v>0.5296687475919718</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L54" s="13">
+        <f>$H$12*SUMSQ($C$12:$D$12)+$F$10*(SUMSQ($J$56:$J$57)+SUMSQ($D$16:$D$17)+SUMSQ($E$16:$E$17))+$G$10*($K$56^2+$J$16^2+$K$16^2)</f>
+        <v>0.49154249954977769</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P54" s="13">
+        <f>$H$12*SUMSQ($C$13:$D$13)+$F$10*(SUMSQ($C$16:$C$17)+SUMSQ($N$56:$N$57)+SUMSQ($E$16:$E$17))+$G$10*($I$16^2+$O$56^2+$K$16^2)</f>
+        <v>0.49937600155353323</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="13">
+        <f>AVERAGE(E16,F16)</f>
+        <v>0.67456128402903859</v>
+      </c>
+      <c r="C56" s="13">
+        <f>AVERAGE(K16,L16)</f>
+        <v>0.81144147097998442</v>
+      </c>
+      <c r="F56" s="13">
+        <f>AVERAGE(E16,F16)</f>
+        <v>0.67456128402903859</v>
+      </c>
+      <c r="G56" s="13">
+        <f>AVERAGE(K16,L16)</f>
+        <v>0.81144147097998442</v>
+      </c>
+      <c r="J56" s="13">
+        <f>AVERAGE(C16,F16)</f>
+        <v>0.70177428061098668</v>
+      </c>
+      <c r="K56" s="13">
+        <f>AVERAGE(I16,L16)</f>
+        <v>0.61307093011676961</v>
+      </c>
+      <c r="N56" s="13">
+        <f>AVERAGE(D16,F16)</f>
+        <v>0.62463128846696381</v>
+      </c>
+      <c r="O56" s="13">
+        <f>AVERAGE(J16,L16)</f>
+        <v>0.84722953219213126</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="13">
+        <f>AVERAGE(E17,F17)</f>
+        <v>0.41278788934511634</v>
+      </c>
+      <c r="F57" s="13">
+        <f>AVERAGE(E17,F17)</f>
+        <v>0.41278788934511634</v>
+      </c>
+      <c r="J57" s="13">
+        <f>AVERAGE(C17,F17)</f>
+        <v>0.45559933563061578</v>
+      </c>
+      <c r="N57" s="13">
+        <f>AVERAGE(D17,F17)</f>
+        <v>0.32407269008923106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F1C7B42-7B21-4B99-8D9B-52E62DA5CCD0}">
+  <dimension ref="A1:Q57"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="6" width="14.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.21875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="10" max="12" width="14.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="14.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
+        <f>N4+$I$16</f>
+        <v>1.2086238778192178</v>
+      </c>
+      <c r="J4" s="13">
+        <f>O4+$J$16</f>
+        <v>1.5116823109904867</v>
+      </c>
+      <c r="K4" s="13">
+        <f>P4+$K$16</f>
+        <v>1.5431100962949293</v>
+      </c>
+      <c r="L4" s="13">
+        <f>Q4+$L$16</f>
+        <v>1.118588916272776</v>
+      </c>
+      <c r="N4" s="13">
+        <f t="array" ref="N4:Q7">MMULT(C10:D13,C16:F17)</f>
+        <v>0.74638571601344994</v>
+      </c>
+      <c r="O4" s="13">
+        <v>0.5989052555434432</v>
+      </c>
+      <c r="P4" s="13">
+        <v>0.69408013334662799</v>
+      </c>
+      <c r="Q4" s="13">
+        <v>0.34371886552823</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" ref="I5:I7" si="0">N5+$I$16</f>
+        <v>1.5417252303277686</v>
+      </c>
+      <c r="J5" s="13">
+        <f t="shared" ref="J5:J7" si="1">O5+$J$16</f>
+        <v>1.7265999206145777</v>
+      </c>
+      <c r="K5" s="13">
+        <f t="shared" ref="K5:K7" si="2">P5+$K$16</f>
+        <v>1.8371489836042532</v>
+      </c>
+      <c r="L5" s="13">
+        <f t="shared" ref="L5:L7" si="3">Q5+$L$16</f>
+        <v>1.2774613979215028</v>
+      </c>
+      <c r="N5" s="13">
+        <v>1.0794870685220008</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0.81382286516753433</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0.98811902065595181</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0.50259134717695675</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.93082370150269789</v>
+      </c>
+      <c r="J6" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2014017052521084</v>
+      </c>
+      <c r="K6" s="13">
+        <f t="shared" si="2"/>
+        <v>1.2585501368066452</v>
+      </c>
+      <c r="L6" s="13">
+        <f t="shared" si="3"/>
+        <v>0.99979498029306069</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0.46858553969693006</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0.28862464980506491</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0.40952017385834405</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0.22492492954851462</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="0"/>
+        <v>1.0409173321829399</v>
+      </c>
+      <c r="J7" s="13">
+        <f t="shared" si="1"/>
+        <v>1.2888403409367903</v>
+      </c>
+      <c r="K7" s="13">
+        <f t="shared" si="2"/>
+        <v>1.3606580213377037</v>
+      </c>
+      <c r="L7" s="13">
+        <f t="shared" si="3"/>
+        <v>1.0505885567522659</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0.57867917037717209</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0.37606328548974699</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0.51162805838940251</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0.27571850600771997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J9" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="L9" s="11" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B10" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.69368772825877933</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0.12313739148650386</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I10" s="13">
+        <v>1</v>
+      </c>
+      <c r="J10" s="13">
+        <f>SUM(B42:B43,F42:F43,J42:J43,N42:N43)</f>
+        <v>-14.320984487574504</v>
+      </c>
+      <c r="K10" s="13">
+        <f>SUM(D52:D54,H52:H54,L52:L54,P52:P54)</f>
+        <v>5.9210462014154359</v>
+      </c>
+      <c r="L10" s="13">
+        <f>J10-K10</f>
+        <v>-20.242030688989942</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B11" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.79493213050507716</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0.50646502851856312</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="I11" s="11" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B12" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="13">
+        <v>8.7887546277828577E-2</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.62519852422195021</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B13" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.18662228837384232</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.64901336006523913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="B16" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C16">
+        <v>0.96705501981526998</v>
+      </c>
+      <c r="D16">
+        <v>0.80141403827449398</v>
+      </c>
+      <c r="E16">
+        <v>0.90692259157882293</v>
+      </c>
+      <c r="F16">
+        <v>0.44267913358515293</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0.46223816180576777</v>
+      </c>
+      <c r="J16" s="13">
+        <v>0.91277705544704346</v>
+      </c>
+      <c r="K16" s="13">
+        <v>0.84902996294830124</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0.77487005074454607</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B17" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C17">
+        <v>0.61355462629583957</v>
+      </c>
+      <c r="D17">
+        <v>0.34899368436617523</v>
+      </c>
+      <c r="E17">
+        <v>0.52753319120674369</v>
+      </c>
+      <c r="F17">
+        <v>0.2975358058319445</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A19" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="M19" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="N19" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B21" s="13">
+        <f>AVERAGE(I4)</f>
+        <v>1.2086238778192178</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="13">
+        <f>AVERAGE(J5)</f>
+        <v>1.7265999206145777</v>
+      </c>
+      <c r="I21" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J21" s="13">
+        <f>I6</f>
+        <v>0.93082370150269789</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" s="13">
+        <f>K7</f>
+        <v>1.3606580213377037</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="I22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J22" s="13">
+        <f>L6</f>
+        <v>0.99979498029306069</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="13">
+        <f>AVERAGE(K4)</f>
+        <v>1.5431100962949293</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F23" s="13">
+        <f>AVERAGE(I5)</f>
+        <v>1.5417252303277686</v>
+      </c>
+      <c r="I23" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J23" s="13">
+        <f>AVERAGE(I6,L6)</f>
+        <v>0.96530934089787923</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="13">
+        <f>J7</f>
+        <v>1.2888403409367903</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="13">
+        <f>AVERAGE(L4)</f>
+        <v>1.118588916272776</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="I24" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N24" s="13">
+        <f>L7</f>
+        <v>1.0505885567522659</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A25" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B25" s="13">
+        <f>AVERAGE(K4:L4)</f>
+        <v>1.3308495062838528</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F25" s="13">
+        <f>K5</f>
+        <v>1.8371489836042532</v>
+      </c>
+      <c r="I25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J25" s="13">
+        <f>J6</f>
+        <v>1.2014017052521084</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N25" s="13">
+        <f>AVERAGE(J7,L7)</f>
+        <v>1.1697144488445281</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="13">
+        <f>L5</f>
+        <v>1.2774613979215028</v>
+      </c>
+      <c r="I26" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A27" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B27" s="13">
+        <f>AVERAGE(J4)</f>
+        <v>1.5116823109904867</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="F27" s="13">
+        <f>AVERAGE(K5:L5)</f>
+        <v>1.5573051907628779</v>
+      </c>
+      <c r="I27" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="J27" s="13">
+        <f>K6</f>
+        <v>1.2585501368066452</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N27" s="13">
+        <f>I7</f>
+        <v>1.0409173321829399</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="13">
+        <f>$I$10*B48</f>
+        <v>0.5</v>
+      </c>
+      <c r="E29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F29" s="13">
+        <f>$I$10*F48</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="J29" s="13">
+        <f>$I$10*J48</f>
+        <v>0.8</v>
+      </c>
+      <c r="M29" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N29" s="13">
+        <f>$I$10*N48</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="J31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M31" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N31" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="O31" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P31" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C32" s="13">
+        <f>B21-B23</f>
+        <v>-0.33448621847571158</v>
+      </c>
+      <c r="D32" s="13">
+        <f>1/(1+EXP(-C32/$B$29))</f>
+        <v>0.33872696752466747</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G32" s="13">
+        <f>F21-F23</f>
+        <v>0.18487469028680903</v>
+      </c>
+      <c r="H32" s="13">
+        <f>1/(1+EXP(-G32/$F$29))</f>
+        <v>0.56888711079760212</v>
+      </c>
+      <c r="I32" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K32" s="13">
+        <f>J21-$J$25</f>
+        <v>-0.27057800374941054</v>
+      </c>
+      <c r="L32" s="13">
+        <f>1/(1+EXP(-K32/$J$29))</f>
+        <v>0.41624131643795287</v>
+      </c>
+      <c r="M32" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N32" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O32" s="13">
+        <f>$N$21-N23</f>
+        <v>7.1817680400913408E-2</v>
+      </c>
+      <c r="P32" s="13">
+        <f>1/(1+EXP(-O32/$N$29))</f>
+        <v>0.53584723068140949</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" s="13">
+        <f>B21-B24</f>
+        <v>9.003496154644175E-2</v>
+      </c>
+      <c r="D33" s="13">
+        <f>1/(1+EXP(-C33/$B$29))</f>
+        <v>0.54489623225923123</v>
+      </c>
+      <c r="I33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K33" s="13">
+        <f t="shared" ref="K33" si="4">J22-$J$25</f>
+        <v>-0.20160672495904775</v>
+      </c>
+      <c r="L33" s="13">
+        <f>1/(1+EXP(-K33/$J$29))</f>
+        <v>0.43732922378580236</v>
+      </c>
+      <c r="M33" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N33" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O33" s="13">
+        <f t="shared" ref="O33:O34" si="5">$N$21-N24</f>
+        <v>0.31006946458543783</v>
+      </c>
+      <c r="P33" s="13">
+        <f>1/(1+EXP(-O33/$N$29))</f>
+        <v>0.65025014518527002</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B34" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" s="13">
+        <f>B21-B25</f>
+        <v>-0.12222562846463503</v>
+      </c>
+      <c r="D34" s="13">
+        <f>1/(1+EXP(-C34/$B$29))</f>
+        <v>0.43918970173683763</v>
+      </c>
+      <c r="I34" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J34" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K34" s="13">
+        <f>J23-$J$25</f>
+        <v>-0.2360923643542292</v>
+      </c>
+      <c r="L34" s="13">
+        <f>1/(1+EXP(-K34/$J$29))</f>
+        <v>0.42675198267049758</v>
+      </c>
+      <c r="M34" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N34" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O34" s="13">
+        <f t="shared" si="5"/>
+        <v>0.19094357249317562</v>
+      </c>
+      <c r="P34" s="13">
+        <f>1/(1+EXP(-O34/$N$29))</f>
+        <v>0.59432817860550524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="E36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="H36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="K36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="L36" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="M36" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="N36" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="O36" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="P36" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C37" s="13">
+        <f>B23-B27</f>
+        <v>3.1427785304442679E-2</v>
+      </c>
+      <c r="D37" s="13">
+        <f>1/(1+EXP(-C37))</f>
+        <v>0.50785629969409674</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="G37" s="13">
+        <f>$F$23-F25</f>
+        <v>-0.29542375327648451</v>
+      </c>
+      <c r="H37" s="13">
+        <f>1/(1+EXP(-G37))</f>
+        <v>0.42667656401753795</v>
+      </c>
+      <c r="I37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J37" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K37" s="13">
+        <f>J25-J27</f>
+        <v>-5.7148431554536749E-2</v>
+      </c>
+      <c r="L37" s="13">
+        <f>1/(1+EXP(-K37))</f>
+        <v>0.48571677924879314</v>
+      </c>
+      <c r="M37" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="N37" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O37" s="13">
+        <f>N23-$N$27</f>
+        <v>0.24792300875385043</v>
+      </c>
+      <c r="P37" s="13">
+        <f>1/(1+EXP(-O37))</f>
+        <v>0.56166521670711178</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B38" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C38" s="13">
+        <f>B24-B27</f>
+        <v>-0.39309339471771065</v>
+      </c>
+      <c r="D38" s="13">
+        <f>1/(1+EXP(-C38))</f>
+        <v>0.40297285122159027</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F38" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" s="13">
+        <f>$F$23-F26</f>
+        <v>0.26426383240626583</v>
+      </c>
+      <c r="H38" s="13">
+        <f>1/(1+EXP(-G38))</f>
+        <v>0.5656841458771078</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="13">
+        <f t="shared" ref="O38:O39" si="6">N24-$N$27</f>
+        <v>9.671224569326009E-3</v>
+      </c>
+      <c r="P38" s="13">
+        <f>1/(1+EXP(-O38))</f>
+        <v>0.50241778729720299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="13">
+        <f>B25-B27</f>
+        <v>-0.18083280470663388</v>
+      </c>
+      <c r="D39" s="13">
+        <f>1/(1+EXP(-C39))</f>
+        <v>0.45491459154474451</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F39" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="G39" s="13">
+        <f>$F$23-F27</f>
+        <v>-1.557996043510923E-2</v>
+      </c>
+      <c r="H39" s="13">
+        <f>1/(1+EXP(-G39))</f>
+        <v>0.49610508867689995</v>
+      </c>
+      <c r="M39" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="N39" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O39" s="13">
+        <f t="shared" si="6"/>
+        <v>0.12879711666158822</v>
+      </c>
+      <c r="P39" s="13">
+        <f>1/(1+EXP(-O39))</f>
+        <v>0.53215484087343912</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I41" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="M41" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q41" s="11" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="B42" s="13">
+        <f>LN(D32)+LN(D33)+LN(D34)</f>
+        <v>-2.5125446404560519</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F42" s="13">
+        <f>LN(H32)</f>
+        <v>-0.56407326384077749</v>
+      </c>
+      <c r="I42" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="J42" s="13">
+        <f>LN(L32)+LN(L33)+LN(L34)</f>
+        <v>-2.5551113656788349</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="N42" s="13">
+        <f>LN(P32)+LN(P33)+LN(P34)</f>
+        <v>-1.5746279502498828</v>
+      </c>
+      <c r="Q42" s="13">
+        <f>SUM(B42,B43,F42,F43,J42,J43,N42,N43)</f>
+        <v>-14.320984487574504</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="13">
+        <f>LN(D37)+LN(D38)+LN(D39)</f>
+        <v>-2.3740884205803963</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="F43" s="13">
+        <f>LN(H37)+LN(H38)+LN(H39)</f>
+        <v>-2.1224159191542276</v>
+      </c>
+      <c r="I43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="J43" s="13">
+        <f>LN(L37)</f>
+        <v>-0.72212958369885993</v>
+      </c>
+      <c r="M43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N43" s="13">
+        <f>LN(P37)+LN(P38)+LN(P39)</f>
+        <v>-1.8959933439154728</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="B46" s="13">
+        <v>1</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="F46" s="13">
+        <v>1</v>
+      </c>
+      <c r="I46" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="J46" s="13">
+        <v>1</v>
+      </c>
+      <c r="M46" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="N46" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="B47" s="13">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="F47" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I47" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J47" s="12">
+        <f>2/3</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="M47" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="N47" s="13">
+        <f>1/3</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B48" s="13">
+        <f>2*B46*B47/(B46+B47)</f>
+        <v>0.5</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="F48" s="13">
+        <f>2*F46*F47/(F46+F47)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I48" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="J48" s="13">
+        <f>2*J46*J47/(J46+J47)</f>
+        <v>0.8</v>
+      </c>
+      <c r="M48" s="13" t="s">
+        <v>80</v>
+      </c>
+      <c r="N48" s="13">
+        <f>2*N46*N47/(N46+N47)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A50" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="M50" s="11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="H51" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="L51" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="M51" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N51" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O51" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="P51" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D52" s="13">
+        <f>$F$12*SUMSQ($C$10:$D$10)+$F$10*(SUMSQ(C16:C17)+SUMSQ(E16:E17)+SUMSQ(D16:D17))+$G$10*(I16^2+K16^2+J16^2)</f>
+        <v>0.54405490288937397</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="H52" s="13">
+        <f>$G$12*SUMSQ($C$11:$D$11)+$F$10*(SUMSQ(D16:D17)+SUMSQ(C16:C17)+SUMSQ(E16:E17))+$G$10*(J16^2+I16^2+K16^2)</f>
+        <v>0.58326074645964632</v>
+      </c>
+      <c r="I52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="J52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L52" s="13">
+        <f>$H$12*SUMSQ($C$12:$D$12)+$F$10*(SUMSQ($C$16:$C$17)+SUMSQ($D$16:$D$17)+SUMSQ($E$16:$E$17))+$G$10*($I$16^2+$J$16^2+$K$16^2)</f>
+        <v>0.5342780962854855</v>
+      </c>
+      <c r="M52" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N52" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="O52" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P52" s="13">
+        <f>$H$12*SUMSQ($C$13:$D$13)+$F$10*(SUMSQ($C$16:$C$17)+SUMSQ($D$16:$D$17)+SUMSQ($E$16:$E$17))+$G$10*($I$16^2+$J$16^2+$K$16^2)</f>
+        <v>0.54002297674358735</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A53" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="13">
+        <f>$F$12*SUMSQ($C$10:$D$10)+$F$10*(SUMSQ(C16:C17)+SUMSQ(F16:F17)+SUMSQ(D16:D17))+$G$10*(I16^2+L16^2+J16^2)</f>
+        <v>0.45038132625735477</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F53" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G53" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="H53" s="13">
+        <f>$G$12*SUMSQ($C$11:$D$11)+$F$10*(SUMSQ(C16:C17)+SUMSQ(D16:D17)+SUMSQ(F16:F17))+$G$10*(J16^2+I16^2+L16^2)</f>
+        <v>0.48958716982762712</v>
+      </c>
+      <c r="I53" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L53" s="13">
+        <f>$H$12*SUMSQ($C$12:$D$12)+$F$10*(SUMSQ($F$16:$F$17)+SUMSQ($D$16:$D$17)+SUMSQ($E$16:$E$17))+$G$10*($L$16^2+$J$16^2+$K$16^2)</f>
+        <v>0.47023881204309614</v>
+      </c>
+      <c r="M53" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N53" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="O53" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P53" s="13">
+        <f>$H$12*SUMSQ($C$13:$D$13)+$F$10*(SUMSQ($C$16:$C$17)+SUMSQ($F$16:$F$17)+SUMSQ($E$16:$E$17))+$G$10*($I$16^2+$L$16^2+$K$16^2)</f>
+        <v>0.46879227286190106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A54" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D54" s="13">
+        <f>$F$12*SUMSQ($C$10:$D$10)+$F$10*(SUMSQ(C16:C17)+SUMSQ(B56:B57)+SUMSQ(D16:D17))+$G$10*(I17^2+L17^2+J17^2)</f>
+        <v>0.31976121413987779</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="F54" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="G54" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="H54" s="13">
+        <f>$G$12*SUMSQ($C$11:$D$11)+$F$10*(SUMSQ(D16:D17)+SUMSQ(C16:C17)+SUMSQ(F56:F57))+$G$10*(J16^2+I16^2+G56^2)</f>
+        <v>0.52957594618995585</v>
+      </c>
+      <c r="I54" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="J54" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="K54" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="L54" s="13">
+        <f>$H$12*SUMSQ($C$12:$D$12)+$F$10*(SUMSQ($J$56:$J$57)+SUMSQ($D$16:$D$17)+SUMSQ($E$16:$E$17))+$G$10*($K$56^2+$J$16^2+$K$16^2)</f>
+        <v>0.4904440375910798</v>
+      </c>
+      <c r="M54" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="N54" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="O54" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="P54" s="13">
+        <f>$H$12*SUMSQ($C$13:$D$13)+$F$10*(SUMSQ($C$16:$C$17)+SUMSQ($N$56:$N$57)+SUMSQ($E$16:$E$17))+$G$10*($I$16^2+$O$56^2+$K$16^2)</f>
+        <v>0.50064870012645102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B56" s="13">
+        <f>AVERAGE(E16,F16)</f>
+        <v>0.6748008625819879</v>
+      </c>
+      <c r="C56" s="13">
+        <f>AVERAGE(K16,L16)</f>
+        <v>0.8119500068464236</v>
+      </c>
+      <c r="F56" s="13">
+        <f>AVERAGE(E16,F16)</f>
+        <v>0.6748008625819879</v>
+      </c>
+      <c r="G56" s="13">
+        <f>AVERAGE(K16,L16)</f>
+        <v>0.8119500068464236</v>
+      </c>
+      <c r="J56" s="13">
+        <f>AVERAGE(C16,F16)</f>
+        <v>0.70486707670021143</v>
+      </c>
+      <c r="K56" s="13">
+        <f>AVERAGE(I16,L16)</f>
+        <v>0.61855410627515695</v>
+      </c>
+      <c r="N56" s="13">
+        <f>AVERAGE(D16,F16)</f>
+        <v>0.62204658592982343</v>
+      </c>
+      <c r="O56" s="13">
+        <f>AVERAGE(J16,L16)</f>
+        <v>0.84382355309579471</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B57" s="13">
+        <f>AVERAGE(E17,F17)</f>
+        <v>0.41253449851934409</v>
+      </c>
+      <c r="F57" s="13">
+        <f>AVERAGE(E17,F17)</f>
+        <v>0.41253449851934409</v>
+      </c>
+      <c r="J57" s="13">
+        <f>AVERAGE(C17,F17)</f>
+        <v>0.45554521606389203</v>
+      </c>
+      <c r="N57" s="13">
+        <f>AVERAGE(D17,F17)</f>
+        <v>0.32326474509905989</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/BPRH Example.xlsx
+++ b/BPRH Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - The University of Texas at Dallas\UTD MIS PhD YXL180111\2020 Summer\Research\BPR\BPRH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86214" documentId="11_C6DE35B66380080D137F7BCE8AF8D9537155F92F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{473831BD-79C4-4759-8F86-F7939AEBDCBB}"/>
+  <xr:revisionPtr revIDLastSave="86220" documentId="11_C6DE35B66380080D137F7BCE8AF8D9537155F92F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{94FFCFF6-2265-45A4-B27F-85960514628D}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Iteration1" sheetId="6" r:id="rId6"/>
     <sheet name="obj_t" sheetId="10" r:id="rId7"/>
     <sheet name="obj_t+1" sheetId="11" r:id="rId8"/>
+    <sheet name="new example" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">BPR!$C$9:$D$12,BPR!$C$15:$F$16</definedName>
@@ -262,7 +263,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="174">
   <si>
     <t>User 1</t>
   </si>
@@ -869,6 +870,48 @@
   <si>
     <t>Diff of OBJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Item 5</t>
+  </si>
+  <si>
+    <t>Item 6</t>
+  </si>
+  <si>
+    <t>Item 7</t>
+  </si>
+  <si>
+    <t>Item 8</t>
+  </si>
+  <si>
+    <t>Item 9</t>
+  </si>
+  <si>
+    <t>Item 10</t>
+  </si>
+  <si>
+    <t>Item 11</t>
+  </si>
+  <si>
+    <t>Item 12</t>
+  </si>
+  <si>
+    <t>Item 13</t>
+  </si>
+  <si>
+    <t>Item 14</t>
+  </si>
+  <si>
+    <t>Item 15</t>
+  </si>
+  <si>
+    <t>User 5</t>
+  </si>
+  <si>
+    <t>User 6</t>
+  </si>
+  <si>
+    <t>User 7</t>
   </si>
 </sst>
 </file>
@@ -953,7 +996,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -988,6 +1031,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5322,7 +5368,7 @@
   <dimension ref="A1:Q59"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+      <selection activeCell="B3" sqref="B3:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -6696,7 +6742,7 @@
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A58" s="14" t="s">
+      <c r="A58" s="16" t="s">
         <v>105</v>
       </c>
       <c r="B58" s="10" t="e">
@@ -6733,7 +6779,7 @@
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
+      <c r="A59" s="16"/>
       <c r="B59" s="10" t="e">
         <f>AVERAGE(#REF!,#REF!)</f>
         <v>#REF!</v>
@@ -6765,7 +6811,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF663139-5F27-49CE-B6B4-785F705D853A}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
@@ -6934,11 +6980,11 @@
         <v>1</v>
       </c>
       <c r="M6" s="10">
-        <f>B6</f>
+        <f t="shared" ref="M6:N8" si="0">B6</f>
         <v>0.79493213050507716</v>
       </c>
       <c r="N6" s="10">
-        <f>C6</f>
+        <f t="shared" si="0"/>
         <v>0.50646502851856312</v>
       </c>
       <c r="O6" s="10">
@@ -6971,11 +7017,11 @@
         <v>2</v>
       </c>
       <c r="M7" s="13">
-        <f>B7</f>
+        <f t="shared" si="0"/>
         <v>8.7887546277828577E-2</v>
       </c>
       <c r="N7" s="13">
-        <f>C7</f>
+        <f t="shared" si="0"/>
         <v>0.62519852422195021</v>
       </c>
       <c r="O7" s="10">
@@ -7008,11 +7054,11 @@
         <v>24</v>
       </c>
       <c r="M8" s="13">
-        <f>B8</f>
+        <f t="shared" si="0"/>
         <v>0.18662228837384232</v>
       </c>
       <c r="N8" s="13">
-        <f>C8</f>
+        <f t="shared" si="0"/>
         <v>0.64901336006523913</v>
       </c>
       <c r="O8" s="10">
@@ -8515,7 +8561,7 @@
       <c r="Q76" s="13"/>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
+      <c r="A77" s="16"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
@@ -8534,7 +8580,7 @@
       <c r="Q77" s="13"/>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A78" s="14"/>
+      <c r="A78" s="16"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
       <c r="D78" s="13"/>
@@ -11603,4 +11649,143 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802A1B7B-AC97-4373-A81B-95038A5F5329}">
+  <dimension ref="A1:P8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>161</v>
+      </c>
+      <c r="H1" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="I1" s="14" t="s">
+        <v>163</v>
+      </c>
+      <c r="J1" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="K1" s="14" t="s">
+        <v>165</v>
+      </c>
+      <c r="L1" s="14" t="s">
+        <v>166</v>
+      </c>
+      <c r="M1" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="N1" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="O1" s="14" t="s">
+        <v>169</v>
+      </c>
+      <c r="P1" s="14" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BPRH Example.xlsx
+++ b/BPRH Example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OneDrive - The University of Texas at Dallas\UTD MIS PhD YXL180111\2020 Summer\Research\BPR\BPRH\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="86220" documentId="11_C6DE35B66380080D137F7BCE8AF8D9537155F92F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{94FFCFF6-2265-45A4-B27F-85960514628D}"/>
+  <xr:revisionPtr revIDLastSave="86228" documentId="11_C6DE35B66380080D137F7BCE8AF8D9537155F92F" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{70DCFB31-86D9-470D-987B-8E483F422163}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" firstSheet="1" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28692" yWindow="-108" windowWidth="29016" windowHeight="15972" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,6 @@
     <sheet name="Iteration1" sheetId="6" r:id="rId6"/>
     <sheet name="obj_t" sheetId="10" r:id="rId7"/>
     <sheet name="obj_t+1" sheetId="11" r:id="rId8"/>
-    <sheet name="new example" sheetId="12" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="1" hidden="1">BPR!$C$9:$D$12,BPR!$C$15:$F$16</definedName>
@@ -263,7 +262,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1508" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1474" uniqueCount="160">
   <si>
     <t>User 1</t>
   </si>
@@ -870,48 +869,6 @@
   <si>
     <t>Diff of OBJ</t>
     <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Item 5</t>
-  </si>
-  <si>
-    <t>Item 6</t>
-  </si>
-  <si>
-    <t>Item 7</t>
-  </si>
-  <si>
-    <t>Item 8</t>
-  </si>
-  <si>
-    <t>Item 9</t>
-  </si>
-  <si>
-    <t>Item 10</t>
-  </si>
-  <si>
-    <t>Item 11</t>
-  </si>
-  <si>
-    <t>Item 12</t>
-  </si>
-  <si>
-    <t>Item 13</t>
-  </si>
-  <si>
-    <t>Item 14</t>
-  </si>
-  <si>
-    <t>Item 15</t>
-  </si>
-  <si>
-    <t>User 5</t>
-  </si>
-  <si>
-    <t>User 6</t>
-  </si>
-  <si>
-    <t>User 7</t>
   </si>
 </sst>
 </file>
@@ -1027,10 +984,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6811,8 +6768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF663139-5F27-49CE-B6B4-785F705D853A}">
   <dimension ref="A1:Q78"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -7156,11 +7113,11 @@
       </c>
       <c r="O11" s="10">
         <f>D11+'BPRH w. D'!$I$10*Iteration1!I28</f>
-        <v>0.90692259157882293</v>
+        <v>0.90397200471461803</v>
       </c>
       <c r="P11" s="10">
         <f>E11+'BPRH w. D'!$I$10*Iteration1!I36</f>
-        <v>0.44267913358515293</v>
+        <v>0.43972854672094797</v>
       </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -7204,11 +7161,11 @@
       </c>
       <c r="O12" s="10">
         <f>D12+'BPRH w. D'!$I$10*Iteration1!J28</f>
-        <v>0.52753319120674369</v>
+        <v>0.5270187022161692</v>
       </c>
       <c r="P12" s="10">
         <f>E12+'BPRH w. D'!$I$10*Iteration1!J36</f>
-        <v>0.2975358058319445</v>
+        <v>0.29702131684137006</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
@@ -7242,11 +7199,11 @@
       </c>
       <c r="O13" s="10">
         <f>D13+'BPRH w. D'!$I$10*Iteration1!$I$24</f>
-        <v>0.84902996294830124</v>
+        <v>0.84476944652040897</v>
       </c>
       <c r="P13" s="10">
         <f>E13+'BPRH w. D'!I10*Iteration1!I32</f>
-        <v>0.77487005074454607</v>
+        <v>0.7706095343166538</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
@@ -7337,10 +7294,10 @@
         <v>1.5116823109904867</v>
       </c>
       <c r="O16" s="10">
-        <v>1.5431100962949293</v>
+        <v>1.5367394411359285</v>
       </c>
       <c r="P16" s="10">
-        <v>1.118588916272776</v>
+        <v>1.1122182611137754</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
@@ -7371,10 +7328,10 @@
         <v>1.7265999206145777</v>
       </c>
       <c r="O17" s="10">
-        <v>1.8371489836042532</v>
+        <v>1.8302823801928743</v>
       </c>
       <c r="P17" s="10">
-        <v>1.2774613979215028</v>
+        <v>1.2705947945101239</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
@@ -7415,10 +7372,10 @@
         <v>1.2014017052521084</v>
       </c>
       <c r="O18" s="10">
-        <v>1.2585501368066452</v>
+        <v>1.2537086427815429</v>
       </c>
       <c r="P18" s="10">
-        <v>0.99979498029306069</v>
+        <v>0.99495348626795832</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
@@ -7459,10 +7416,10 @@
         <v>1.2888403409367903</v>
       </c>
       <c r="O19" s="10">
-        <v>1.3606580213377037</v>
+        <v>1.3555129494086784</v>
       </c>
       <c r="P19" s="10">
-        <v>1.0505885567522659</v>
+        <v>1.0454434848232408</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
@@ -7528,8 +7485,8 @@
         <v>149</v>
       </c>
       <c r="I22" s="10">
-        <f>0.5*(-'BPRH w. D'!$B$31*1/(1+EXP($D$22/'BPRH w. D'!$B$31))+1/(1+EXP($E$22)))</f>
-        <v>0.13199773374191831</v>
+        <f>0.5*(-(1/'BPRH w. D'!$B$31)*(1/(1+EXP($D$22/'BPRH w. D'!$B$31)))+1/(1+EXP($E$22)))</f>
+        <v>-0.29405390904731421</v>
       </c>
       <c r="L22" s="13" t="s">
         <v>155</v>
@@ -7541,11 +7498,11 @@
       <c r="N22" s="13"/>
       <c r="O22" s="13">
         <f>M22-M23</f>
-        <v>-0.12222562846463503</v>
+        <v>-0.11585497330563421</v>
       </c>
       <c r="P22" s="13">
         <f>M23-M24</f>
-        <v>-0.18083280470663388</v>
+        <v>-0.18720345986563469</v>
       </c>
       <c r="Q22" s="13"/>
     </row>
@@ -7570,7 +7527,7 @@
       </c>
       <c r="M23" s="13">
         <f>AVERAGE(O16,P16)</f>
-        <v>1.3308495062838528</v>
+        <v>1.324478851124852</v>
       </c>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -7591,7 +7548,7 @@
       </c>
       <c r="I24" s="10">
         <f>I22-I23</f>
-        <v>5.0853586643919868E-2</v>
+        <v>-0.37519805614531265</v>
       </c>
       <c r="L24" s="13" t="s">
         <v>157</v>
@@ -7638,11 +7595,11 @@
       </c>
       <c r="I26" s="10">
         <f>$I$22*B5</f>
-        <v>9.1413983697838361E-2</v>
+        <v>-0.20364470272265275</v>
       </c>
       <c r="J26" s="10">
         <f>$I$22*C5</f>
-        <v>1.5939706357284464E-2</v>
+        <v>-3.5509192700157219E-2</v>
       </c>
       <c r="L26" s="11" t="s">
         <v>117</v>
@@ -7705,7 +7662,7 @@
       </c>
       <c r="M27" s="13">
         <f>AVERAGE(O11,P11)</f>
-        <v>0.6748008625819879</v>
+        <v>0.671850275717783</v>
       </c>
       <c r="N27" s="13">
         <f>AVERAGE(N11)</f>
@@ -7717,7 +7674,7 @@
       </c>
       <c r="P27" s="13">
         <f>AVERAGE(O13,P13)</f>
-        <v>0.8119500068464236</v>
+        <v>0.80768949041853144</v>
       </c>
       <c r="Q27" s="13">
         <f>AVERAGE(N13)</f>
@@ -7742,11 +7699,11 @@
       </c>
       <c r="I28" s="10">
         <f>I26-I27</f>
-        <v>2.3957855294934494E-2</v>
+        <v>-0.27110083112555661</v>
       </c>
       <c r="J28" s="10">
         <f>J26-J27</f>
-        <v>-2.5339082577227175E-2</v>
+        <v>-7.678798163466885E-2</v>
       </c>
       <c r="L28" s="13">
         <f>AVERAGE(M12)</f>
@@ -7754,7 +7711,7 @@
       </c>
       <c r="M28" s="13">
         <f>AVERAGE(O12,P12)</f>
-        <v>0.41253449851934409</v>
+        <v>0.4120200095287696</v>
       </c>
       <c r="N28" s="13">
         <f>AVERAGE(N12)</f>
@@ -7771,21 +7728,21 @@
       <c r="A30" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <f>obj_t!L10</f>
         <v>-20.332340153146689</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>152</v>
       </c>
-      <c r="I30" s="10">
-        <f>0.5*(-'BPRH w. D'!$B$31*1/(1+EXP($D$22/'BPRH w. D'!$B$31))+1/(1+EXP($E$22)))</f>
-        <v>0.13199773374191831</v>
+      <c r="I30" s="15">
+        <f>0.5*(-(1/'BPRH w. D'!$B$31)*(1/(1+EXP($D$22/'BPRH w. D'!$B$31)))+1/(1+EXP($E$22)))</f>
+        <v>-0.29405390904731421</v>
       </c>
       <c r="L30" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="M30" s="15">
+      <c r="M30" s="14">
         <f>'obj_t+1'!L10</f>
         <v>-20.242030688989942</v>
       </c>
@@ -7812,7 +7769,7 @@
       </c>
       <c r="I32" s="10">
         <f>I30-I31</f>
-        <v>5.0853586643919868E-2</v>
+        <v>-0.37519805614531265</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -7824,11 +7781,11 @@
       </c>
       <c r="I34" s="10">
         <f>$I$22*B5</f>
-        <v>9.1413983697838361E-2</v>
+        <v>-0.20364470272265275</v>
       </c>
       <c r="J34" s="10">
         <f>$I$22*C5</f>
-        <v>1.5939706357284464E-2</v>
+        <v>-3.5509192700157219E-2</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -7850,11 +7807,11 @@
       </c>
       <c r="I36" s="10">
         <f>I34-I35</f>
-        <v>2.3957855294934494E-2</v>
+        <v>-0.27110083112555661</v>
       </c>
       <c r="J36" s="10">
         <f>J34-J35</f>
-        <v>-2.5339082577227175E-2</v>
+        <v>-7.678798163466885E-2</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.25">
@@ -8604,6 +8561,7 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11649,143 +11607,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{802A1B7B-AC97-4373-A81B-95038A5F5329}">
-  <dimension ref="A1:P8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="G1" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="I1" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="J1" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="K1" s="14" t="s">
-        <v>165</v>
-      </c>
-      <c r="L1" s="14" t="s">
-        <v>166</v>
-      </c>
-      <c r="M1" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="N1" s="14" t="s">
-        <v>168</v>
-      </c>
-      <c r="O1" s="14" t="s">
-        <v>169</v>
-      </c>
-      <c r="P1" s="14" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="14"/>
-      <c r="D2" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>173</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="4" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>